--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench-stat\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFA63E-0133-42FB-9F6A-667D66FACFCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -710,11 +709,14 @@
   <si>
     <t>Going through DevOps training</t>
   </si>
+  <si>
+    <t>training on angular</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1308,7 +1310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -18053,7 +18055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18394,7 +18396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18741,7 +18743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19090,7 +19092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19442,7 +19444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -19794,7 +19796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20146,7 +20148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -20498,7 +20500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -21069,11 +21071,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB8ECD0-792E-4F36-AA74-889257A30E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21289,7 +21291,9 @@
       <c r="C13" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>222</v>
+      </c>
       <c r="E13" s="18">
         <v>9</v>
       </c>
@@ -21570,7 +21574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -21806,7 +21810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22031,7 +22035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22257,7 +22261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -22517,7 +22521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22769,7 +22773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -23018,7 +23022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -23283,7 +23287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFA63E-0133-42FB-9F6A-667D66FACFCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19693529-0DDA-491B-893C-919144799ACA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -709,6 +709,9 @@
   </si>
   <si>
     <t>Going through DevOps training</t>
+  </si>
+  <si>
+    <t>Going through Devops Training - Jenkins pipeline</t>
   </si>
 </sst>
 </file>
@@ -21073,7 +21076,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21190,6 +21193,9 @@
       </c>
       <c r="C7" s="56" t="s">
         <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="E7">
         <v>9</v>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -710,7 +710,7 @@
     <t>Going through DevOps training</t>
   </si>
   <si>
-    <t>training on angular</t>
+    <t>Training on angular</t>
   </si>
 </sst>
 </file>
@@ -21075,7 +21075,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -710,7 +710,7 @@
     <t>Going through DevOps training</t>
   </si>
   <si>
-    <t>Training on angular</t>
+    <t>Training on angular.</t>
   </si>
 </sst>
 </file>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -710,7 +710,10 @@
     <t>Going through DevOps training</t>
   </si>
   <si>
-    <t>Training on angular.</t>
+    <t>Going through Devops Training - Jenkins pipeline</t>
+  </si>
+  <si>
+    <t>Training in angular</t>
   </si>
 </sst>
 </file>
@@ -21193,6 +21196,9 @@
       <c r="C7" s="56" t="s">
         <v>28</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="E7">
         <v>9</v>
       </c>
@@ -21292,7 +21298,7 @@
         <v>189</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E13" s="18">
         <v>9</v>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PERS\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19693529-0DDA-491B-893C-919144799ACA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7324F69D-B78C-483B-A45D-EBD97A433153}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -711,7 +711,7 @@
     <t>Going through DevOps training</t>
   </si>
   <si>
-    <t>Going through Devops Training - Jenkins pipeline</t>
+    <t>Going through Devops Training - Jenkins pipeline.</t>
   </si>
 </sst>
 </file>
@@ -21076,7 +21076,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PERS\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prduhan\Documents\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7324F69D-B78C-483B-A45D-EBD97A433153}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -713,11 +712,14 @@
   <si>
     <t>Going through Devops Training - Jenkins pipeline.</t>
   </si>
+  <si>
+    <t>Going through product data management training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1311,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -18056,7 +18058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18397,7 +18399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18744,7 +18746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19093,7 +19095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19445,7 +19447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -19797,7 +19799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20149,7 +20151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -20501,7 +20503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -21072,11 +21074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB8ECD0-792E-4F36-AA74-889257A30E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21311,6 +21313,9 @@
       <c r="C14" s="27" t="s">
         <v>191</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="E14" s="18">
         <v>9</v>
       </c>
@@ -21576,7 +21581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -21812,7 +21817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22037,7 +22042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22263,7 +22268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -22523,7 +22528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22775,7 +22780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -23024,7 +23029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -23289,7 +23294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thejms\bench_status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7560" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7560" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="226">
   <si>
     <t>Date</t>
   </si>
@@ -715,14 +720,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,159 +791,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,194 +811,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1173,251 +835,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1487,7 +907,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1568,63 +988,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1882,31 +1258,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.7238095238095" customWidth="1"/>
-    <col min="2" max="2" width="22.4571428571429" customWidth="1"/>
-    <col min="3" max="3" width="25.2666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.7238095238095" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.4571428571429" customWidth="1"/>
-    <col min="6" max="6" width="22.4571428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.4571428571429" customWidth="1"/>
-    <col min="8" max="8" width="27.8190476190476" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:16384" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:8">
+    <row r="2" spans="1:16384">
       <c r="A2" s="25">
         <v>43908</v>
       </c>
@@ -1956,7 +1332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:16384">
       <c r="A3" s="25"/>
       <c r="B3">
         <v>181577</v>
@@ -1971,7 +1347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:8">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4">
         <v>67908</v>
@@ -1992,7 +1368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:8">
+    <row r="5" spans="1:16384" ht="29">
       <c r="A5" s="25"/>
       <c r="B5">
         <v>156137</v>
@@ -2013,7 +1389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="1:8">
+    <row r="6" spans="1:16384" ht="29">
       <c r="A6" s="25"/>
       <c r="B6">
         <v>186918</v>
@@ -2034,7 +1410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:16384">
       <c r="A7" s="25"/>
       <c r="B7">
         <v>187207</v>
@@ -2055,7 +1431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="90" spans="1:8">
+    <row r="8" spans="1:16384" ht="87">
       <c r="A8" s="58"/>
       <c r="B8" s="21">
         <v>132584</v>
@@ -2079,7 +1455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="45" spans="1:8">
+    <row r="9" spans="1:16384" ht="43.5">
       <c r="A9" s="58"/>
       <c r="B9" s="21">
         <v>187175</v>
@@ -2103,7 +1479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:8">
+    <row r="10" spans="1:16384" ht="29">
       <c r="A10" s="58"/>
       <c r="B10" s="21">
         <v>146199</v>
@@ -2127,7 +1503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:16384">
       <c r="A11" s="25"/>
       <c r="B11">
         <v>189815</v>
@@ -2148,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" s="57" customFormat="1" spans="1:16384">
+    <row r="12" spans="1:16384" s="57" customFormat="1">
       <c r="A12" s="25"/>
       <c r="B12">
         <v>155867</v>
@@ -18542,7 +17918,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" ht="60" spans="1:8">
+    <row r="13" spans="1:16384" ht="58">
       <c r="A13" s="25"/>
       <c r="B13">
         <v>185010</v>
@@ -18563,10 +17939,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:16384">
       <c r="A14" s="25"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:16384">
       <c r="A15" s="58"/>
       <c r="B15" s="56">
         <v>46011902</v>
@@ -18586,16 +17962,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="1:4">
       <c r="C17" s="21"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="1:4">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:4">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
     </row>
@@ -18617,38 +17993,36 @@
       <c r="C27" s="21"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:4">
       <c r="B28" s="56"/>
       <c r="C28" s="26"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="1:4">
       <c r="C29" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kOaXWcI4l4I9GK58pzxvuJtTnR9/lNm0Nv3i8PhQgNQkx5+GH7n4Nq/x/yVywL54ZnuRMOr07SENX89uVTYIqw==" saltValue="r1Yeom9g3/jhqlxIiwFehQ==" spinCount="100000" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kOaXWcI4l4I9GK58pzxvuJtTnR9/lNm0Nv3i8PhQgNQkx5+GH7n4Nq/x/yVywL54ZnuRMOr07SENX89uVTYIqw==" saltValue="r1Yeom9g3/jhqlxIiwFehQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18674,7 +18048,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -18692,7 +18066,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:7" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18709,7 +18083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18726,7 +18100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -18743,7 +18117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -18760,7 +18134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:7">
+    <row r="7" spans="1:7" ht="29">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -18781,7 +18155,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -18798,7 +18172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -18818,7 +18192,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -18836,7 +18210,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="34" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -18857,7 +18231,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -18873,7 +18247,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" ht="30" spans="1:6">
+    <row r="13" spans="1:7" ht="29">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -18891,7 +18265,7 @@
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -18926,7 +18300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -18957,7 +18331,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -18970,28 +18344,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -19017,7 +18389,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -19035,7 +18407,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:7" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19052,7 +18424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19069,7 +18441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -19086,7 +18458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -19124,7 +18496,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -19161,7 +18533,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -19179,7 +18551,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="34" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -19200,7 +18572,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -19237,7 +18609,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -19306,7 +18678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -19319,28 +18691,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -19366,7 +18736,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:6">
+    <row r="2" spans="1:7" ht="29">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -19384,7 +18754,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:7" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19401,7 +18771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19418,7 +18788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -19435,7 +18805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -19473,7 +18843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -19510,7 +18880,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -19528,7 +18898,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="34" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -19549,7 +18919,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -19586,7 +18956,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -19623,7 +18993,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="1:7">
+    <row r="16" spans="1:7" ht="29">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -19657,7 +19027,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -19670,31 +19040,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19717,7 +19085,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:6">
+    <row r="2" spans="1:8" ht="29">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -19735,7 +19103,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:8" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19752,7 +19120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19769,7 +19137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -19786,7 +19154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -19827,7 +19195,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -19841,7 +19209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -19864,7 +19232,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -19882,7 +19250,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:7">
+    <row r="11" spans="1:8" ht="34" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -19903,7 +19271,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -19919,7 +19287,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -19940,7 +19308,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:6">
+    <row r="14" spans="1:8" ht="29">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -19958,7 +19326,7 @@
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -19977,7 +19345,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="1:7">
+    <row r="16" spans="1:8" ht="29">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -20011,7 +19379,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -20024,31 +19392,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20071,7 +19437,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -20089,7 +19455,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:8" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20106,7 +19472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20123,7 +19489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -20140,7 +19506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -20181,7 +19547,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -20195,7 +19561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -20218,7 +19584,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -20236,7 +19602,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:7">
+    <row r="11" spans="1:8" ht="34" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -20257,7 +19623,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -20273,7 +19639,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -20294,7 +19660,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -20312,7 +19678,7 @@
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -20331,7 +19697,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -20365,7 +19731,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -20378,31 +19744,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20425,7 +19789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -20443,7 +19807,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:8" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20460,7 +19824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20477,7 +19841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -20494,7 +19858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -20535,7 +19899,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -20549,7 +19913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:7">
+    <row r="9" spans="1:8" ht="29">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -20572,7 +19936,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -20590,7 +19954,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:7">
+    <row r="11" spans="1:8" ht="34" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -20611,7 +19975,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -20627,7 +19991,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -20648,7 +20012,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -20666,7 +20030,7 @@
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -20685,7 +20049,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -20719,7 +20083,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -20732,31 +20096,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20779,7 +20141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -20797,7 +20159,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:8" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20814,7 +20176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20831,7 +20193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -20848,7 +20210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -20889,7 +20251,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -20903,7 +20265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -20926,7 +20288,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -20944,7 +20306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:7">
+    <row r="11" spans="1:8" ht="34" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -20965,7 +20327,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -20981,7 +20343,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -21002,7 +20364,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -21020,7 +20382,7 @@
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -21039,7 +20401,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -21073,7 +20435,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -21086,31 +20448,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="16.2666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.2666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.4571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
@@ -21133,7 +20493,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:6">
+    <row r="2" spans="1:8" ht="29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21151,7 +20511,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:8" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21168,7 +20528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21185,7 +20545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -21226,7 +20586,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -21243,7 +20603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -21266,7 +20626,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" ht="32.5" customHeight="1" spans="1:6">
+    <row r="9" spans="1:8" ht="32.5" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -21284,7 +20644,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1" spans="1:7">
+    <row r="10" spans="1:8" ht="34" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -21307,7 +20667,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -21325,7 +20685,7 @@
       </c>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -21346,7 +20706,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -21364,7 +20724,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -21382,7 +20742,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -21399,7 +20759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -21413,7 +20773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -21430,7 +20790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -21447,7 +20807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -21464,7 +20824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="1:6">
+    <row r="20" spans="1:6" ht="29">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -21484,7 +20844,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -21501,7 +20861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -21518,7 +20878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -21535,7 +20895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" ht="30" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -21552,7 +20912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -21569,7 +20929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -21584,7 +20944,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -21598,7 +20958,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -21612,7 +20972,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -21626,7 +20986,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -21657,29 +21017,27 @@
       <c r="F31" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pCQypCgrCIGaj0R5jruDogmD1nva92vodDdkBb/0qqPN0/uJpfkjdU9RzLF0RGBfP8/w1jW70Gd8Ji6BpvBRdA==" saltValue="4yBEc5XeWsNGVHPemtIR9g==" spinCount="100000" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pCQypCgrCIGaj0R5jruDogmD1nva92vodDdkBb/0qqPN0/uJpfkjdU9RzLF0RGBfP8/w1jW70Gd8Ji6BpvBRdA==" saltValue="4yBEc5XeWsNGVHPemtIR9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="16.2666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.2666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.4571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -21718,7 +21076,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21733,7 +21091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21747,7 +21105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -21778,7 +21136,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -21813,7 +21171,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" ht="32.5" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="32.5" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -21829,7 +21187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="34" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -21915,7 +21273,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -21929,7 +21287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -21943,7 +21301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -21957,7 +21315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -21971,7 +21329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -21985,7 +21343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="1:6">
+    <row r="20" spans="1:6" ht="29">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -22003,7 +21361,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -22017,7 +21375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -22034,7 +21392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -22048,7 +21406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -22062,7 +21420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -22072,11 +21430,14 @@
       <c r="C25" s="20" t="s">
         <v>212</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E25" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -22173,27 +21534,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8190476190476" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="18.9047619047619" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.6285714285714" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22236,7 +21595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" ht="24.5" customHeight="1" spans="2:5">
+    <row r="3" spans="1:6" ht="24.5" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22248,7 +21607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="27.5" customHeight="1" spans="2:5">
+    <row r="4" spans="1:6" ht="27.5" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -22262,7 +21621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="2:5">
+    <row r="5" spans="1:6" ht="16" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22276,7 +21635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -22290,7 +21649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="31.5" customHeight="1" spans="2:5">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -22304,7 +21663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="32" customHeight="1" spans="2:5">
+    <row r="8" spans="1:6" ht="32" customHeight="1">
       <c r="B8" s="21">
         <v>132584</v>
       </c>
@@ -22318,7 +21677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="32" customHeight="1" spans="2:6">
+    <row r="9" spans="1:6" ht="32" customHeight="1">
       <c r="B9" s="21">
         <v>187175</v>
       </c>
@@ -22353,7 +21712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="21"/>
       <c r="B11">
         <v>189815</v>
@@ -22368,7 +21727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="21"/>
       <c r="B12">
         <v>155867</v>
@@ -22381,7 +21740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="27.5" customHeight="1" spans="2:5">
+    <row r="13" spans="1:6" ht="27.5" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22395,7 +21754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:6">
       <c r="B14" s="56">
         <v>46011902</v>
       </c>
@@ -22410,27 +21769,25 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+YsNC2LEwkQZtPvrVg+RTTJKRC7s33CKEuhqXf/gRoLi3Ko88ZEeRnUTxARGY81xPgOfYAnsNgVeV6MeLCYWjg==" saltValue="SCVr6IMqSLq4iVyOsKru9A==" spinCount="100000" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+YsNC2LEwkQZtPvrVg+RTTJKRC7s33CKEuhqXf/gRoLi3Ko88ZEeRnUTxARGY81xPgOfYAnsNgVeV6MeLCYWjg==" saltValue="SCVr6IMqSLq4iVyOsKru9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="18.9047619047619" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.7238095238095" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22453,7 +21810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -22470,7 +21827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="24.5" customHeight="1" spans="2:5">
+    <row r="3" spans="1:6" ht="24.5" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22484,7 +21841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="27.5" customHeight="1" spans="2:5">
+    <row r="4" spans="1:6" ht="27.5" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -22498,7 +21855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="2:5">
+    <row r="5" spans="1:6" ht="16" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22512,7 +21869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:6">
       <c r="B6" s="6">
         <v>186918</v>
       </c>
@@ -22526,7 +21883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="31.5" customHeight="1" spans="2:5">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -22540,7 +21897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="32" customHeight="1" spans="2:5">
+    <row r="8" spans="1:6" ht="32" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22608,7 +21965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" ht="25" customHeight="1" spans="2:5">
+    <row r="12" spans="1:6" ht="25" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22622,7 +21979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="32.5" customHeight="1" spans="2:5">
+    <row r="13" spans="1:6" ht="32.5" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22637,28 +21994,26 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y4VhTOLVrkF+DIJYCmRqR5XOUUx53uzjmJJqKVSShOL/wVORbiB8qpcN359mMA0t8QSNiQr+PoXB7vAbwv/H/Q==" saltValue="wv1BwiANv/07k1WdbDRsLQ==" spinCount="100000" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y4VhTOLVrkF+DIJYCmRqR5XOUUx53uzjmJJqKVSShOL/wVORbiB8qpcN359mMA0t8QSNiQr+PoXB7vAbwv/H/Q==" saltValue="wv1BwiANv/07k1WdbDRsLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="18.9047619047619" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22681,7 +22036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -22698,7 +22053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="24.5" customHeight="1" spans="2:5">
+    <row r="3" spans="1:6" ht="24.5" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22712,7 +22067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="27.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:6" ht="27.5" customHeight="1">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -22729,7 +22084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="2:5">
+    <row r="5" spans="1:6" ht="16" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22743,7 +22098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:6">
       <c r="B6" s="6">
         <v>186918</v>
       </c>
@@ -22757,7 +22112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="31.5" customHeight="1" spans="2:5">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7" s="21">
         <v>187207</v>
       </c>
@@ -22771,7 +22126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="32" customHeight="1" spans="2:5">
+    <row r="8" spans="1:6" ht="32" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22803,7 +22158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="21"/>
       <c r="B10" s="6">
         <v>189815</v>
@@ -22836,7 +22191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" ht="25" customHeight="1" spans="2:5">
+    <row r="12" spans="1:6" ht="25" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22850,7 +22205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="32.5" customHeight="1" spans="2:5">
+    <row r="13" spans="1:6" ht="32.5" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22865,28 +22220,26 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k4O/GBzmHEr5E9TreHcabxmUDX3aJp9GIVPev88mcT0fNv0tG/5YSctogBChyqFHXpf41u/cUQEP2Rkghou/0g==" saltValue="32i46YCv2uHOHDaOWpm8bw==" spinCount="100000" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k4O/GBzmHEr5E9TreHcabxmUDX3aJp9GIVPev88mcT0fNv0tG/5YSctogBChyqFHXpf41u/cUQEP2Rkghou/0g==" saltValue="32i46YCv2uHOHDaOWpm8bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="23.5428571428571" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.5428571428571" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22927,7 +22280,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="27.5" customHeight="1">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -22944,7 +22297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="2:5">
+    <row r="4" spans="1:6" ht="16" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22958,7 +22311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" s="6">
         <v>186918</v>
@@ -22973,7 +22326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="1:5">
+    <row r="6" spans="1:6" ht="29">
       <c r="A6" s="21"/>
       <c r="B6" s="6">
         <v>189815</v>
@@ -22988,7 +22341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -23002,7 +22355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="47" customHeight="1" spans="2:6">
+    <row r="8" spans="1:6" ht="47" customHeight="1">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -23019,7 +22372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" ht="66.5" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="66.5" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="27"/>
       <c r="C9" s="9" t="s">
@@ -23035,7 +22388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="25" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="27"/>
       <c r="C10" s="9" t="s">
@@ -23051,7 +22404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" ht="25" customHeight="1" spans="2:6">
+    <row r="11" spans="1:6" ht="25" customHeight="1">
       <c r="B11" s="32">
         <v>46011902</v>
       </c>
@@ -23064,7 +22417,7 @@
       <c r="E11" s="32"/>
       <c r="F11" s="54"/>
     </row>
-    <row r="12" ht="32.5" customHeight="1" spans="2:6">
+    <row r="12" spans="1:6" ht="32.5" customHeight="1">
       <c r="B12" s="32">
         <v>132584</v>
       </c>
@@ -23077,7 +22430,7 @@
       <c r="E12" s="32"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" ht="30" spans="2:6">
+    <row r="13" spans="1:6" ht="29">
       <c r="B13" s="32">
         <v>119065</v>
       </c>
@@ -23092,7 +22445,7 @@
       </c>
       <c r="F13" s="54"/>
     </row>
-    <row r="14" ht="30" spans="2:6">
+    <row r="14" spans="1:6" ht="29">
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
         <v>77</v>
@@ -23107,7 +22460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="3:6">
+    <row r="15" spans="1:6" ht="29">
       <c r="C15" s="33" t="s">
         <v>79</v>
       </c>
@@ -23121,34 +22474,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="1:6">
       <c r="C16" s="12"/>
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23189,7 +22540,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="27.5" customHeight="1">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -23206,7 +22557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="2:5">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -23220,7 +22571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" s="6">
         <v>186918</v>
@@ -23233,7 +22584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="21"/>
       <c r="B6" s="6">
         <v>189815</v>
@@ -23248,7 +22599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:6">
+    <row r="7" spans="1:6" ht="29">
       <c r="A7" s="21"/>
       <c r="B7" s="6">
         <v>119065</v>
@@ -23264,7 +22615,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -23278,7 +22629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="2:6">
+    <row r="9" spans="1:6" ht="29">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -23293,7 +22644,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="32.5" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="27"/>
       <c r="C10" s="21" t="s">
@@ -23325,7 +22676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:6">
       <c r="B12" s="32">
         <v>46011902</v>
       </c>
@@ -23338,7 +22689,7 @@
       <c r="E12" s="32"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:6">
       <c r="B13" s="32">
         <v>132584</v>
       </c>
@@ -23351,7 +22702,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="54"/>
     </row>
-    <row r="14" ht="45" spans="2:6">
+    <row r="14" spans="1:6" ht="29">
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
         <v>77</v>
@@ -23366,7 +22717,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" ht="45" spans="3:6">
+    <row r="15" spans="1:6" ht="29">
       <c r="C15" s="33" t="s">
         <v>79</v>
       </c>
@@ -23382,27 +22733,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23441,7 +22790,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:6" ht="27.5" customHeight="1">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -23455,7 +22804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="2:5">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -23469,7 +22818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" s="6">
         <v>186918</v>
@@ -23482,7 +22831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="1:5">
+    <row r="6" spans="1:6" ht="29">
       <c r="A6" s="21"/>
       <c r="B6" s="6">
         <v>189815</v>
@@ -23513,7 +22862,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" ht="30" spans="2:5">
+    <row r="8" spans="1:6" ht="29">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -23527,7 +22876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="2:6">
+    <row r="9" spans="1:6" ht="29">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -23542,7 +22891,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="32.5" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="27"/>
       <c r="C10" s="21" t="s">
@@ -23558,7 +22907,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="100.5" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1">
       <c r="A11" s="21"/>
       <c r="B11" s="27">
         <v>175816</v>
@@ -23576,7 +22925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:6">
       <c r="B12" s="32">
         <v>46011902</v>
       </c>
@@ -23589,7 +22938,7 @@
       <c r="E12" s="32"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:6">
       <c r="B13" s="32">
         <v>132584</v>
       </c>
@@ -23602,7 +22951,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="54"/>
     </row>
-    <row r="14" ht="45" spans="2:6">
+    <row r="14" spans="1:6" ht="29">
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
         <v>77</v>
@@ -23617,7 +22966,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" ht="45" spans="3:6">
+    <row r="15" spans="1:6" ht="29">
       <c r="C15" s="33" t="s">
         <v>79</v>
       </c>
@@ -23633,27 +22982,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23694,7 +23041,7 @@
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="27.5" customHeight="1">
       <c r="A3" s="38"/>
       <c r="B3" s="38">
         <v>67908</v>
@@ -23710,7 +23057,7 @@
       </c>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" ht="44.5" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="44.5" customHeight="1">
       <c r="A4" s="38"/>
       <c r="B4" s="38">
         <v>156137</v>
@@ -23758,7 +23105,7 @@
       </c>
       <c r="F6" s="41"/>
     </row>
-    <row r="7" ht="30" spans="1:6">
+    <row r="7" spans="1:6" ht="29">
       <c r="A7" s="23"/>
       <c r="B7" s="39">
         <v>119065</v>
@@ -23790,7 +23137,7 @@
       </c>
       <c r="F8" s="43"/>
     </row>
-    <row r="9" ht="117" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="45">
         <v>175816</v>
@@ -23822,7 +23169,7 @@
       </c>
       <c r="F10" s="41"/>
     </row>
-    <row r="11" ht="32.5" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="32.5" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="45"/>
       <c r="C11" s="23" t="s">
@@ -23838,7 +23185,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" ht="45" spans="1:6">
+    <row r="12" spans="1:6" ht="29">
       <c r="A12" s="38"/>
       <c r="B12" s="49">
         <v>46011902</v>
@@ -23854,7 +23201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" ht="45" spans="1:6">
+    <row r="13" spans="1:6" ht="29">
       <c r="A13" s="38"/>
       <c r="B13" s="49">
         <v>132584</v>
@@ -23870,7 +23217,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" ht="45" spans="1:6">
+    <row r="14" spans="1:6" ht="29">
       <c r="A14" s="38"/>
       <c r="B14" s="49"/>
       <c r="C14" s="52" t="s">
@@ -23884,7 +23231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" ht="45" spans="1:6">
+    <row r="15" spans="1:6" ht="29">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="52" t="s">
@@ -23900,27 +23247,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="25.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="43.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6285714285714" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23947,7 +23292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -23965,7 +23310,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:7" ht="27.5" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23982,7 +23327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="35.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23999,7 +23344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -24016,7 +23361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -24033,7 +23378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:6">
+    <row r="7" spans="1:7" ht="29">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -24051,7 +23396,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -24068,7 +23413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -24086,7 +23431,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" ht="32.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -24104,7 +23449,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="34" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -24122,7 +23467,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -24138,7 +23483,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -24154,7 +23499,7 @@
       <c r="E13" s="33"/>
       <c r="F13" s="35"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -24170,7 +23515,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="35"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -24184,7 +23529,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -24219,7 +23564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -24232,7 +23577,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prduhan\Documents\bench_status\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -32,9 +27,9 @@
     <sheet name="Status-17-04-2020" sheetId="34" r:id="rId17"/>
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="225">
   <si>
     <t>Date</t>
   </si>
@@ -715,12 +710,15 @@
   <si>
     <t>Going through product data management training</t>
   </si>
+  <si>
+    <t>Going through React Js Training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,7 +1058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1112,7 +1110,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1306,33 +1304,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16384" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16384" ht="30">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1382,7 +1380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16384">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1397,7 +1395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1418,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16384" ht="30">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1439,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16384" ht="30">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1460,7 +1458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16384">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1481,7 +1479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16384" ht="105">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1505,7 +1503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16384" ht="60">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1529,7 +1527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16384" ht="45">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1553,7 +1551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16384">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1574,7 +1572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16384" s="4" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17968,7 +17966,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16384" ht="75">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -17989,10 +17987,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16384">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16384">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18012,70 +18010,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kOaXWcI4l4I9GK58pzxvuJtTnR9/lNm0Nv3i8PhQgNQkx5+GH7n4Nq/x/yVywL54ZnuRMOr07SENX89uVTYIqw==" saltValue="r1Yeom9g3/jhqlxIiwFehQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18098,7 +18096,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18116,7 +18114,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18133,7 +18131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18150,7 +18148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18167,7 +18165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18184,7 +18182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18205,7 +18203,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18222,7 +18220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18242,7 +18240,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18260,7 +18258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18281,7 +18279,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18297,7 +18295,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18315,7 +18313,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18333,7 +18331,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18350,7 +18348,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18364,7 +18362,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18381,7 +18379,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18399,24 +18397,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18439,7 +18437,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18457,7 +18455,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18474,7 +18472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18491,7 +18489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18508,7 +18506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18525,7 +18523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18546,7 +18544,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18560,7 +18558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18583,7 +18581,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18601,7 +18599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18622,7 +18620,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18638,7 +18636,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18659,7 +18657,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18677,7 +18675,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18694,7 +18692,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18711,7 +18709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18728,7 +18726,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18746,24 +18744,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18786,7 +18784,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18804,7 +18802,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18821,7 +18819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18838,7 +18836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18855,7 +18853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18872,7 +18870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18893,7 +18891,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18907,7 +18905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18930,7 +18928,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18948,7 +18946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18969,7 +18967,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18985,7 +18983,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19006,7 +19004,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19024,7 +19022,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19043,7 +19041,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19060,7 +19058,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19077,7 +19075,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19095,24 +19093,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19135,7 +19133,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19153,7 +19151,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19170,7 +19168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19187,7 +19185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19204,7 +19202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19221,7 +19219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19245,7 +19243,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19259,7 +19257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19282,7 +19280,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19300,7 +19298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19321,7 +19319,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19337,7 +19335,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19358,7 +19356,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19376,7 +19374,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19395,7 +19393,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19412,7 +19410,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19429,7 +19427,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19447,24 +19445,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19487,7 +19485,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19505,7 +19503,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19522,7 +19520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19539,7 +19537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19556,7 +19554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19573,7 +19571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19597,7 +19595,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19611,7 +19609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19634,7 +19632,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19652,7 +19650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19673,7 +19671,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19689,7 +19687,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19710,7 +19708,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19728,7 +19726,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19747,7 +19745,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19764,7 +19762,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19781,7 +19779,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19799,24 +19797,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19839,7 +19837,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19857,7 +19855,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19874,7 +19872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19891,7 +19889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19908,7 +19906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19925,7 +19923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19949,7 +19947,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19963,7 +19961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19986,7 +19984,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20004,7 +20002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20025,7 +20023,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20041,7 +20039,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20062,7 +20060,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20080,7 +20078,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20099,7 +20097,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20116,7 +20114,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20133,7 +20131,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20151,24 +20149,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20191,7 +20189,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20209,7 +20207,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20226,7 +20224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20243,7 +20241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20260,7 +20258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20277,7 +20275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20301,7 +20299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20315,7 +20313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20338,7 +20336,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20356,7 +20354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20377,7 +20375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20393,7 +20391,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20414,7 +20412,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20432,7 +20430,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20451,7 +20449,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20468,7 +20466,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20485,7 +20483,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20503,24 +20501,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20543,7 +20541,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20561,7 +20559,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20578,7 +20576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20595,7 +20593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20612,7 +20610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20636,7 +20634,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20653,7 +20651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20676,7 +20674,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20694,7 +20692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20717,7 +20715,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20735,7 +20733,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20756,7 +20754,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20774,7 +20772,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20792,7 +20790,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20809,7 +20807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20823,7 +20821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20840,7 +20838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20857,7 +20855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20874,7 +20872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20894,7 +20892,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20911,7 +20909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20928,7 +20926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20945,7 +20943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20962,7 +20960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20979,7 +20977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -20994,7 +20992,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21008,7 +21006,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21022,7 +21020,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21036,7 +21034,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21050,7 +21048,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21067,30 +21065,30 @@
       <c r="F31" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pCQypCgrCIGaj0R5jruDogmD1nva92vodDdkBb/0qqPN0/uJpfkjdU9RzLF0RGBfP8/w1jW70Gd8Ji6BpvBRdA==" saltValue="4yBEc5XeWsNGVHPemtIR9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21110,7 +21108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21126,7 +21124,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21141,7 +21139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21155,7 +21153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21170,7 +21168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21186,7 +21184,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21203,7 +21201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21221,7 +21219,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21237,7 +21235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21255,7 +21253,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21271,7 +21269,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21287,7 +21285,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21303,7 +21301,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21321,7 +21319,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21335,7 +21333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21349,7 +21347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21363,7 +21361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21377,7 +21375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21391,7 +21389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21409,7 +21407,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21423,7 +21421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21437,7 +21435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21451,7 +21449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21465,7 +21463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21479,7 +21477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21494,7 +21492,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -21504,13 +21502,15 @@
       <c r="C27" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" s="11"/>
+      <c r="D27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="26">
+        <v>9</v>
+      </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21526,7 +21526,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21542,7 +21542,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21558,7 +21558,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21581,23 +21581,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21637,7 +21637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21691,7 +21691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21705,7 +21705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21754,7 +21754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21769,7 +21769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21782,7 +21782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21811,28 +21811,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+YsNC2LEwkQZtPvrVg+RTTJKRC7s33CKEuhqXf/gRoLi3Ko88ZEeRnUTxARGY81xPgOfYAnsNgVeV6MeLCYWjg==" saltValue="SCVr6IMqSLq4iVyOsKru9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21852,7 +21852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21897,7 +21897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21925,7 +21925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -21971,7 +21971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -21989,7 +21989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22007,7 +22007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22036,29 +22036,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y4VhTOLVrkF+DIJYCmRqR5XOUUx53uzjmJJqKVSShOL/wVORbiB8qpcN359mMA0t8QSNiQr+PoXB7vAbwv/H/Q==" saltValue="wv1BwiANv/07k1WdbDRsLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22078,7 +22078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22168,7 +22168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22200,7 +22200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22215,7 +22215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22233,7 +22233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22247,7 +22247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22262,29 +22262,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k4O/GBzmHEr5E9TreHcabxmUDX3aJp9GIVPev88mcT0fNv0tG/5YSctogBChyqFHXpf41u/cUQEP2Rkghou/0g==" saltValue="32i46YCv2uHOHDaOWpm8bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22304,7 +22304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22322,7 +22322,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22339,7 +22339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22368,7 +22368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22383,7 +22383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22397,7 +22397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22414,7 +22414,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22430,7 +22430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22446,7 +22446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22459,7 +22459,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22472,7 +22472,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="30">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22487,7 +22487,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22502,7 +22502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22528,23 +22528,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22613,7 +22613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22626,7 +22626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22641,7 +22641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22657,7 +22657,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22671,7 +22671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22686,7 +22686,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22702,7 +22702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22718,7 +22718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22731,7 +22731,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22744,7 +22744,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22759,7 +22759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22780,23 +22780,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22816,7 +22816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22832,7 +22832,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22873,7 +22873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22888,7 +22888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22904,7 +22904,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22933,7 +22933,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22949,7 +22949,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -22967,7 +22967,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22980,7 +22980,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22993,7 +22993,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23008,7 +23008,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23029,23 +23029,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23083,7 +23083,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23099,7 +23099,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23147,7 +23147,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23163,7 +23163,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23179,7 +23179,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23195,7 +23195,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23211,7 +23211,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23227,7 +23227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23243,7 +23243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23259,7 +23259,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23273,7 +23273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23294,24 +23294,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23352,7 +23352,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23420,7 +23420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23438,7 +23438,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23455,7 +23455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23473,7 +23473,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23491,7 +23491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23509,7 +23509,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23525,7 +23525,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23541,7 +23541,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23557,7 +23557,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23571,7 +23571,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23606,7 +23606,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1304,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21076,7 +21076,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21493,13 +21493,13 @@
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="27">
         <v>142584</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="27" t="s">
         <v>213</v>
       </c>
       <c r="D27" s="5" t="s">

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1304,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21076,7 +21076,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1304,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21075,7 +21075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thejms\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F604D4B8-9973-4657-B41A-C979ED32F89C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7560" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="Status-10-04-2020" sheetId="32" r:id="rId16"/>
     <sheet name="Status-17-04-2020" sheetId="34" r:id="rId17"/>
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
+    <sheet name="Status-21-04-2020" sheetId="36" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="226">
   <si>
     <t>Date</t>
   </si>
@@ -720,7 +721,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1263,7 +1264,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -18008,7 +18010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18349,7 +18352,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18696,7 +18700,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19045,7 +19050,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19397,7 +19403,8 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -19749,7 +19756,8 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20101,7 +20109,8 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -20453,10 +20462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -21024,11 +21034,12 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -21538,8 +21549,514 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3C9E85-6CBB-4D80-8E1B-10638ABAC88C}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>94597</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.5" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67908</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.5" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>156137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>189815</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>119065</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>185010</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>154447</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="12">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.5" customHeight="1">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" customHeight="1">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>175816</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>191221</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>46014906</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20">
+        <v>156635</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="12">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20">
+        <v>168293</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="12">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20">
+        <v>151146</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20">
+        <v>156996</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20">
+        <v>185599</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20">
+        <v>96340</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20">
+        <v>108444</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>139666</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="16">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20">
+        <v>141023</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20">
+        <v>178684</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20">
+        <v>187084</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20">
+        <v>46013133</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20">
+        <v>151158</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20">
+        <v>142742</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>142584</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="21">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>100578</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="21">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
+        <v>176569</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="21">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
+        <v>190871</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -21775,7 +22292,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22000,7 +22518,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22226,7 +22745,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -22486,7 +23006,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22738,7 +23259,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -22987,7 +23509,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -23252,7 +23775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1304,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F604D4B8-9973-4657-B41A-C979ED32F89C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458102CC-3CE6-407C-AF3E-8370EFA9042D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -717,6 +717,9 @@
   <si>
     <t>Going through on Java8 and Spring Boot training</t>
   </si>
+  <si>
+    <t>Going through on Python and PL/SQL training</t>
+  </si>
 </sst>
 </file>
 
@@ -1272,16 +1275,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1">
@@ -1370,7 +1373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="29">
+    <row r="5" spans="1:16384">
       <c r="A5" s="25"/>
       <c r="B5">
         <v>156137</v>
@@ -1391,7 +1394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="29">
+    <row r="6" spans="1:16384" ht="28.8">
       <c r="A6" s="25"/>
       <c r="B6">
         <v>186918</v>
@@ -1433,7 +1436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="87">
+    <row r="8" spans="1:16384" ht="86.4">
       <c r="A8" s="58"/>
       <c r="B8" s="21">
         <v>132584</v>
@@ -1457,7 +1460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="43.5">
+    <row r="9" spans="1:16384" ht="43.2">
       <c r="A9" s="58"/>
       <c r="B9" s="21">
         <v>187175</v>
@@ -1481,7 +1484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="29">
+    <row r="10" spans="1:16384" ht="28.8">
       <c r="A10" s="58"/>
       <c r="B10" s="21">
         <v>146199</v>
@@ -17920,7 +17923,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="58">
+    <row r="13" spans="1:16384" ht="57.6">
       <c r="A13" s="25"/>
       <c r="B13">
         <v>185010</v>
@@ -18018,14 +18021,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18069,7 +18072,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1">
+    <row r="3" spans="1:7" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18086,7 +18089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1">
+    <row r="4" spans="1:7" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18137,7 +18140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29">
+    <row r="7" spans="1:7" ht="28.8">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -18195,7 +18198,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1">
+    <row r="10" spans="1:7" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -18213,7 +18216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1">
+    <row r="11" spans="1:7" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -18250,7 +18253,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="29">
+    <row r="13" spans="1:7" ht="28.8">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -18360,14 +18363,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18411,7 +18414,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1">
+    <row r="3" spans="1:7" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18428,7 +18431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1">
+    <row r="4" spans="1:7" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18537,7 +18540,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1">
+    <row r="10" spans="1:7" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -18555,7 +18558,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1">
+    <row r="11" spans="1:7" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -18708,14 +18711,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18741,7 +18744,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -18759,7 +18762,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1">
+    <row r="3" spans="1:7" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18776,7 +18779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1">
+    <row r="4" spans="1:7" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18885,7 +18888,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1">
+    <row r="10" spans="1:7" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -18903,7 +18906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1">
+    <row r="11" spans="1:7" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -18998,7 +19001,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29">
+    <row r="16" spans="1:7" ht="28.8">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -19058,14 +19061,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19091,7 +19094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -19109,7 +19112,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19126,7 +19129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19238,7 +19241,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1">
+    <row r="10" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -19256,7 +19259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1">
+    <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -19314,7 +19317,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29">
+    <row r="14" spans="1:8" ht="28.8">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -19351,7 +19354,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29">
+    <row r="16" spans="1:8" ht="28.8">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -19411,14 +19414,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19462,7 +19465,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19479,7 +19482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19591,7 +19594,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1">
+    <row r="10" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -19609,7 +19612,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1">
+    <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -19764,14 +19767,14 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19815,7 +19818,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19832,7 +19835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19921,7 +19924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29">
+    <row r="9" spans="1:8" ht="28.8">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -19944,7 +19947,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1">
+    <row r="10" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -19962,7 +19965,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1">
+    <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -20117,14 +20120,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20168,7 +20171,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20185,7 +20188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20297,7 +20300,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1">
+    <row r="10" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -20315,7 +20318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1">
+    <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -20470,14 +20473,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20503,7 +20506,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20521,7 +20524,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20538,7 +20541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20636,7 +20639,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.5" customHeight="1">
+    <row r="9" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -20654,7 +20657,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34" customHeight="1">
+    <row r="10" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -20834,7 +20837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29">
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -21038,17 +21041,17 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -21087,7 +21090,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21102,7 +21105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1">
+    <row r="4" spans="1:6" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21182,7 +21185,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1">
+    <row r="9" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -21198,7 +21201,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1">
+    <row r="10" spans="1:6" ht="34.049999999999997" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -21354,7 +21357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29">
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -21412,6 +21415,9 @@
       </c>
       <c r="C23" s="20" t="s">
         <v>208</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E23" s="12">
         <v>9</v>
@@ -21554,17 +21560,17 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -21603,7 +21609,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21618,7 +21624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1">
+    <row r="4" spans="1:6" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21698,7 +21704,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1">
+    <row r="9" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -21714,7 +21720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1">
+    <row r="10" spans="1:6" ht="34.049999999999997" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -21865,7 +21871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29">
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -22063,13 +22069,13 @@
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22112,7 +22118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1">
+    <row r="3" spans="1:6" ht="24.45" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22124,7 +22130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1">
+    <row r="4" spans="1:6" ht="27.45" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -22138,7 +22144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1">
+    <row r="5" spans="1:6" ht="16.05" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22180,7 +22186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1">
+    <row r="8" spans="1:6" ht="31.95" customHeight="1">
       <c r="B8" s="21">
         <v>132584</v>
       </c>
@@ -22194,7 +22200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32" customHeight="1">
+    <row r="9" spans="1:6" ht="31.95" customHeight="1">
       <c r="B9" s="21">
         <v>187175</v>
       </c>
@@ -22257,7 +22263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.5" customHeight="1">
+    <row r="13" spans="1:6" ht="27.45" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22300,12 +22306,12 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22345,7 +22351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1">
+    <row r="3" spans="1:6" ht="24.45" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22359,7 +22365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1">
+    <row r="4" spans="1:6" ht="27.45" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -22373,7 +22379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1">
+    <row r="5" spans="1:6" ht="16.05" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22415,7 +22421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1">
+    <row r="8" spans="1:6" ht="31.95" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22483,7 +22489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1">
+    <row r="12" spans="1:6" ht="25.05" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22497,7 +22503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1">
+    <row r="13" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22526,13 +22532,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22572,7 +22578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1">
+    <row r="3" spans="1:6" ht="24.45" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22586,7 +22592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1">
+    <row r="4" spans="1:6" ht="27.45" customHeight="1">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -22603,7 +22609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1">
+    <row r="5" spans="1:6" ht="16.05" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22645,7 +22651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1">
+    <row r="8" spans="1:6" ht="31.95" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22710,7 +22716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1">
+    <row r="12" spans="1:6" ht="25.05" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22724,7 +22730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1">
+    <row r="13" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22753,13 +22759,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22800,7 +22806,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -22817,7 +22823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1">
+    <row r="4" spans="1:6" ht="16.05" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22846,7 +22852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29">
+    <row r="6" spans="1:6" ht="28.8">
       <c r="A6" s="21"/>
       <c r="B6" s="6">
         <v>189815</v>
@@ -22875,7 +22881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47" customHeight="1">
+    <row r="8" spans="1:6" ht="46.95" customHeight="1">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22892,7 +22898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.5" customHeight="1">
+    <row r="9" spans="1:6" ht="66.45" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="27"/>
       <c r="C9" s="9" t="s">
@@ -22908,7 +22914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1">
+    <row r="10" spans="1:6" ht="25.05" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="27"/>
       <c r="C10" s="9" t="s">
@@ -22924,7 +22930,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1">
+    <row r="11" spans="1:6" ht="25.05" customHeight="1">
       <c r="B11" s="32">
         <v>46011902</v>
       </c>
@@ -22937,7 +22943,7 @@
       <c r="E11" s="32"/>
       <c r="F11" s="54"/>
     </row>
-    <row r="12" spans="1:6" ht="32.5" customHeight="1">
+    <row r="12" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="B12" s="32">
         <v>132584</v>
       </c>
@@ -22950,7 +22956,7 @@
       <c r="E12" s="32"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="1:6" ht="29">
+    <row r="13" spans="1:6" ht="28.8">
       <c r="B13" s="32">
         <v>119065</v>
       </c>
@@ -22965,7 +22971,7 @@
       </c>
       <c r="F13" s="54"/>
     </row>
-    <row r="14" spans="1:6" ht="29">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
         <v>77</v>
@@ -22980,7 +22986,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29">
+    <row r="15" spans="1:6" ht="28.8">
       <c r="C15" s="33" t="s">
         <v>79</v>
       </c>
@@ -23014,13 +23020,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23061,7 +23067,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -23078,7 +23084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1">
+    <row r="4" spans="1:6" ht="35.549999999999997" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -23120,7 +23126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29">
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="21"/>
       <c r="B7" s="6">
         <v>119065</v>
@@ -23150,7 +23156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29">
+    <row r="9" spans="1:6" ht="28.8">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -23165,7 +23171,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1">
+    <row r="10" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="27"/>
       <c r="C10" s="21" t="s">
@@ -23223,7 +23229,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="54"/>
     </row>
-    <row r="14" spans="1:6" ht="29">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
         <v>77</v>
@@ -23238,7 +23244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29">
+    <row r="15" spans="1:6" ht="28.8">
       <c r="C15" s="33" t="s">
         <v>79</v>
       </c>
@@ -23267,13 +23273,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23312,7 +23318,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -23326,7 +23332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1">
+    <row r="4" spans="1:6" ht="35.549999999999997" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -23353,7 +23359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29">
+    <row r="6" spans="1:6" ht="28.8">
       <c r="A6" s="21"/>
       <c r="B6" s="6">
         <v>189815</v>
@@ -23384,7 +23390,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="29">
+    <row r="8" spans="1:6" ht="28.8">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -23398,7 +23404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29">
+    <row r="9" spans="1:6" ht="28.8">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -23413,7 +23419,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1">
+    <row r="10" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="27"/>
       <c r="C10" s="21" t="s">
@@ -23473,7 +23479,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="54"/>
     </row>
-    <row r="14" spans="1:6" ht="29">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
         <v>77</v>
@@ -23488,7 +23494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29">
+    <row r="15" spans="1:6" ht="28.8">
       <c r="C15" s="33" t="s">
         <v>79</v>
       </c>
@@ -23517,13 +23523,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23564,7 +23570,7 @@
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3" s="38"/>
       <c r="B3" s="38">
         <v>67908</v>
@@ -23580,7 +23586,7 @@
       </c>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1">
+    <row r="4" spans="1:6" ht="44.55" customHeight="1">
       <c r="A4" s="38"/>
       <c r="B4" s="38">
         <v>156137</v>
@@ -23628,7 +23634,7 @@
       </c>
       <c r="F6" s="41"/>
     </row>
-    <row r="7" spans="1:6" ht="29">
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="23"/>
       <c r="B7" s="39">
         <v>119065</v>
@@ -23692,7 +23698,7 @@
       </c>
       <c r="F10" s="41"/>
     </row>
-    <row r="11" spans="1:6" ht="32.5" customHeight="1">
+    <row r="11" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="45"/>
       <c r="C11" s="23" t="s">
@@ -23708,7 +23714,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29">
+    <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="38"/>
       <c r="B12" s="49">
         <v>46011902</v>
@@ -23724,7 +23730,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29">
+    <row r="13" spans="1:6" ht="28.8">
       <c r="A13" s="38"/>
       <c r="B13" s="49">
         <v>132584</v>
@@ -23740,7 +23746,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="A14" s="38"/>
       <c r="B14" s="49"/>
       <c r="C14" s="52" t="s">
@@ -23754,7 +23760,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29">
+    <row r="15" spans="1:6" ht="28.8">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="52" t="s">
@@ -23783,13 +23789,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23834,7 +23840,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1">
+    <row r="3" spans="1:7" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23851,7 +23857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1">
+    <row r="4" spans="1:7" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23902,7 +23908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29">
+    <row r="7" spans="1:7" ht="28.8">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -23955,7 +23961,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1">
+    <row r="10" spans="1:7" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -23973,7 +23979,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1">
+    <row r="11" spans="1:7" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1304,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1304,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21076,7 +21076,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bench_status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="14" activeTab="17"/>
@@ -28,8 +33,8 @@
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="226">
   <si>
     <t>Date</t>
   </si>
@@ -713,12 +718,15 @@
   <si>
     <t>Going through React Js Training</t>
   </si>
+  <si>
+    <t>Interview prepration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,21 +1312,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -1330,7 +1338,7 @@
     <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="30">
+    <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1395,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1416,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="30">
+    <row r="5" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1437,7 +1445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="30">
+    <row r="6" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1458,7 +1466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1479,7 +1487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="105">
+    <row r="8" spans="1:16384" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1503,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60">
+    <row r="9" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1527,7 +1535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="45">
+    <row r="10" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1551,7 +1559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1572,7 +1580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17966,7 +17974,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="75">
+    <row r="13" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -17987,10 +17995,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18010,42 +18018,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18056,14 +18064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -18073,7 +18081,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18096,7 +18104,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18114,7 +18122,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18131,7 +18139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18148,7 +18156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18165,7 +18173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18182,7 +18190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18203,7 +18211,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18220,7 +18228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18240,7 +18248,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18258,7 +18266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18279,7 +18287,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18295,7 +18303,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18313,7 +18321,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18331,7 +18339,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18348,7 +18356,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18362,7 +18370,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18379,7 +18387,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18397,14 +18405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -18414,7 +18422,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18437,7 +18445,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18455,7 +18463,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18472,7 +18480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18489,7 +18497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18506,7 +18514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18523,7 +18531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18544,7 +18552,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18558,7 +18566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18581,7 +18589,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18599,7 +18607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18620,7 +18628,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18636,7 +18644,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18657,7 +18665,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18675,7 +18683,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18692,7 +18700,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18709,7 +18717,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18726,7 +18734,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18744,14 +18752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -18761,7 +18769,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18784,7 +18792,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18802,7 +18810,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18819,7 +18827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18836,7 +18844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18853,7 +18861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18870,7 +18878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18891,7 +18899,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18905,7 +18913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18928,7 +18936,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18946,7 +18954,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18967,7 +18975,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18983,7 +18991,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19004,7 +19012,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19022,7 +19030,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19041,7 +19049,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19058,7 +19066,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19075,7 +19083,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19093,14 +19101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -19110,7 +19118,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19133,7 +19141,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19151,7 +19159,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19168,7 +19176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19185,7 +19193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19202,7 +19210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19219,7 +19227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19243,7 +19251,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19257,7 +19265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19280,7 +19288,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19298,7 +19306,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19319,7 +19327,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19335,7 +19343,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19356,7 +19364,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19374,7 +19382,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19393,7 +19401,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19410,7 +19418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19427,7 +19435,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19445,14 +19453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -19462,7 +19470,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19485,7 +19493,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19503,7 +19511,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19520,7 +19528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19537,7 +19545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19554,7 +19562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19571,7 +19579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19595,7 +19603,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19609,7 +19617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19632,7 +19640,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19650,7 +19658,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19671,7 +19679,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19687,7 +19695,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19708,7 +19716,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19726,7 +19734,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19745,7 +19753,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19762,7 +19770,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19779,7 +19787,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19797,14 +19805,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -19814,7 +19822,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19837,7 +19845,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19855,7 +19863,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19872,7 +19880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19889,7 +19897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19906,7 +19914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19923,7 +19931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19947,7 +19955,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19961,7 +19969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19984,7 +19992,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20002,7 +20010,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20023,7 +20031,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20039,7 +20047,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20060,7 +20068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20078,7 +20086,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20097,7 +20105,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20114,7 +20122,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20131,7 +20139,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20149,14 +20157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -20166,7 +20174,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20189,7 +20197,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20207,7 +20215,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20224,7 +20232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20241,7 +20249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20258,7 +20266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20275,7 +20283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20299,7 +20307,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20313,7 +20321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20336,7 +20344,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20354,7 +20362,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20375,7 +20383,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20391,7 +20399,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20412,7 +20420,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20430,7 +20438,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20449,7 +20457,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20466,7 +20474,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20483,7 +20491,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20501,14 +20509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
@@ -20518,7 +20526,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20541,7 +20549,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20559,7 +20567,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20576,7 +20584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20593,7 +20601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20610,7 +20618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20634,7 +20642,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20651,7 +20659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20674,7 +20682,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20692,7 +20700,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20715,7 +20723,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20733,7 +20741,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20754,7 +20762,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20772,7 +20780,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20790,7 +20798,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20807,7 +20815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20821,7 +20829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20838,7 +20846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20855,7 +20863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20872,7 +20880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20892,7 +20900,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20909,7 +20917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20926,7 +20934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20943,7 +20951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20960,7 +20968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20977,7 +20985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -20992,7 +21000,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21006,7 +21014,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21020,7 +21028,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21034,7 +21042,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21048,7 +21056,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21072,14 +21080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
@@ -21088,7 +21096,7 @@
     <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21108,7 +21116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21124,7 +21132,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21139,7 +21147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21153,7 +21161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21168,7 +21176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21184,7 +21192,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21201,7 +21209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21219,7 +21227,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21235,7 +21243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21253,7 +21261,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21269,7 +21277,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21283,9 +21291,11 @@
       <c r="E12" s="18">
         <v>9</v>
       </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21301,7 +21311,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21319,7 +21329,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21333,7 +21343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21347,7 +21357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21361,7 +21371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21375,7 +21385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21389,7 +21399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21407,7 +21417,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21421,7 +21431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21435,7 +21445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21449,7 +21459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21463,7 +21473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21477,7 +21487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21492,7 +21502,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21510,7 +21520,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21526,7 +21536,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21542,7 +21552,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21558,7 +21568,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21581,14 +21591,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -21597,7 +21607,7 @@
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21617,7 +21627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21637,7 +21647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21649,7 +21659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21663,7 +21673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21677,7 +21687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21691,7 +21701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21705,7 +21715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21719,7 +21729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21736,7 +21746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21754,7 +21764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21769,7 +21779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21782,7 +21792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" customHeight="1">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21796,7 +21806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21817,14 +21827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
@@ -21832,7 +21842,7 @@
     <col min="6" max="6" width="19.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21852,7 +21862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21869,7 +21879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21883,7 +21893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21897,7 +21907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21911,7 +21921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21925,7 +21935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21939,7 +21949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21953,7 +21963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -21971,7 +21981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -21989,7 +21999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22007,7 +22017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22021,7 +22031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22042,14 +22052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -22058,7 +22068,7 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22078,7 +22088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22095,7 +22105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22109,7 +22119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22126,7 +22136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22140,7 +22150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22154,7 +22164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22168,7 +22178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22182,7 +22192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22200,7 +22210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22215,7 +22225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22233,7 +22243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22247,7 +22257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22268,14 +22278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -22284,7 +22294,7 @@
     <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22304,7 +22314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22322,7 +22332,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22339,7 +22349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22353,7 +22363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22368,7 +22378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22383,7 +22393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22397,7 +22407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.1" customHeight="1">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22414,7 +22424,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22430,7 +22440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22446,7 +22456,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22459,7 +22469,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22472,7 +22482,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22487,7 +22497,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22502,7 +22512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22516,7 +22526,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22528,14 +22538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -22544,7 +22554,7 @@
     <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22564,7 +22574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22582,7 +22592,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22599,7 +22609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22613,7 +22623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22626,7 +22636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22641,7 +22651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22657,7 +22667,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22671,7 +22681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22686,7 +22696,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22702,7 +22712,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22718,7 +22728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22731,7 +22741,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22744,7 +22754,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22759,7 +22769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22780,14 +22790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -22796,7 +22806,7 @@
     <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22816,7 +22826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22832,7 +22842,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22846,7 +22856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22860,7 +22870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22873,7 +22883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22888,7 +22898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22904,7 +22914,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22918,7 +22928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22933,7 +22943,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22949,7 +22959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -22967,7 +22977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22980,7 +22990,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22993,7 +23003,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23008,7 +23018,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23029,14 +23039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -23045,7 +23055,7 @@
     <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23065,7 +23075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23083,7 +23093,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23099,7 +23109,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.45" customHeight="1">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23115,7 +23125,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23131,7 +23141,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23147,7 +23157,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23163,7 +23173,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23179,7 +23189,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1">
+    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23195,7 +23205,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23211,7 +23221,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23227,7 +23237,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23243,7 +23253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23259,7 +23269,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23273,7 +23283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23294,14 +23304,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -23311,7 +23321,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23334,7 +23344,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23352,7 +23362,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23369,7 +23379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23386,7 +23396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23403,7 +23413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23420,7 +23430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23438,7 +23448,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23455,7 +23465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23473,7 +23483,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23491,7 +23501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23509,7 +23519,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23525,7 +23535,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23541,7 +23551,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23557,7 +23567,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23571,7 +23581,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23589,7 +23599,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23606,7 +23616,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F64DC6-1B4C-41D5-B0ED-7BF22C976FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -721,11 +722,14 @@
   <si>
     <t>Interview prepration</t>
   </si>
+  <si>
+    <t>learning azure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1319,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -18064,7 +18068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18405,7 +18409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18752,7 +18756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19101,7 +19105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19453,7 +19457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -19805,7 +19809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20157,7 +20161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -20509,7 +20513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -21080,11 +21084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21367,6 +21371,9 @@
       <c r="C17" s="27" t="s">
         <v>194</v>
       </c>
+      <c r="D17" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="E17" s="18">
         <v>9</v>
       </c>
@@ -21591,7 +21598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -21827,7 +21834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22052,7 +22059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22278,7 +22285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -22538,7 +22545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22790,7 +22797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -23039,7 +23046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -23304,7 +23311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,17 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bench_status\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F64DC6-1B4C-41D5-B0ED-7BF22C976FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -34,8 +28,8 @@
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -725,12 +719,15 @@
   <si>
     <t>learning azure</t>
   </si>
+  <si>
+    <t>Learning spring boot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1316,21 +1313,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -1342,7 +1339,7 @@
     <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16384" ht="30">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1392,7 +1389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1407,7 +1404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1428,7 +1425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384" ht="30">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1449,7 +1446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384" ht="30">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1470,7 +1467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1491,7 +1488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384" ht="105">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1515,7 +1512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384" ht="60">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1539,7 +1536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384" ht="45">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1563,7 +1560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1584,7 +1581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16384" s="4" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17978,7 +17975,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16384" ht="75">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -17999,10 +17996,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16384">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16384">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18022,42 +18019,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18068,14 +18065,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -18085,7 +18082,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18108,7 +18105,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18126,7 +18123,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18143,7 +18140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18160,7 +18157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18177,7 +18174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18194,7 +18191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18215,7 +18212,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18232,7 +18229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18252,7 +18249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18270,7 +18267,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18291,7 +18288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18307,7 +18304,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18325,7 +18322,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18343,7 +18340,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18360,7 +18357,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18374,7 +18371,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18391,7 +18388,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18409,14 +18406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -18426,7 +18423,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18449,7 +18446,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18467,7 +18464,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18484,7 +18481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18501,7 +18498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18518,7 +18515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18535,7 +18532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18556,7 +18553,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18570,7 +18567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18593,7 +18590,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18611,7 +18608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18632,7 +18629,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18648,7 +18645,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18669,7 +18666,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18687,7 +18684,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18704,7 +18701,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18721,7 +18718,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18738,7 +18735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18756,14 +18753,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -18773,7 +18770,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18796,7 +18793,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18814,7 +18811,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18831,7 +18828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18848,7 +18845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18865,7 +18862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18882,7 +18879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18903,7 +18900,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18917,7 +18914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18940,7 +18937,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18958,7 +18955,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18979,7 +18976,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18995,7 +18992,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19016,7 +19013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19034,7 +19031,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19053,7 +19050,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19070,7 +19067,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19087,7 +19084,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19105,14 +19102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -19122,7 +19119,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19145,7 +19142,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19163,7 +19160,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19180,7 +19177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19197,7 +19194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19214,7 +19211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19231,7 +19228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19255,7 +19252,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19269,7 +19266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19292,7 +19289,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19310,7 +19307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19331,7 +19328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19347,7 +19344,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19368,7 +19365,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19386,7 +19383,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19405,7 +19402,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19422,7 +19419,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19439,7 +19436,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19457,14 +19454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -19474,7 +19471,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19497,7 +19494,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19515,7 +19512,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19532,7 +19529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19549,7 +19546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19566,7 +19563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19583,7 +19580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19607,7 +19604,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19621,7 +19618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19644,7 +19641,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19662,7 +19659,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19683,7 +19680,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19699,7 +19696,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19720,7 +19717,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19738,7 +19735,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19757,7 +19754,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19774,7 +19771,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19791,7 +19788,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19809,14 +19806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -19826,7 +19823,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19849,7 +19846,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19867,7 +19864,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19884,7 +19881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19901,7 +19898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19918,7 +19915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19935,7 +19932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19959,7 +19956,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19973,7 +19970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19996,7 +19993,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20014,7 +20011,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20035,7 +20032,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20051,7 +20048,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20072,7 +20069,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20090,7 +20087,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20109,7 +20106,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20126,7 +20123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20143,7 +20140,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20161,14 +20158,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -20178,7 +20175,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20201,7 +20198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20219,7 +20216,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20236,7 +20233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20253,7 +20250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20270,7 +20267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20287,7 +20284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20311,7 +20308,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20325,7 +20322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20348,7 +20345,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20366,7 +20363,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20387,7 +20384,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20403,7 +20400,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20424,7 +20421,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20442,7 +20439,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20461,7 +20458,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20478,7 +20475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20495,7 +20492,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20513,14 +20510,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
@@ -20530,7 +20527,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20553,7 +20550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20571,7 +20568,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20588,7 +20585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20605,7 +20602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20622,7 +20619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20646,7 +20643,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20663,7 +20660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20686,7 +20683,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20704,7 +20701,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20727,7 +20724,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20745,7 +20742,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20766,7 +20763,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20784,7 +20781,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20802,7 +20799,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20819,7 +20816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20833,7 +20830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20850,7 +20847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20867,7 +20864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20884,7 +20881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20904,7 +20901,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20921,7 +20918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20938,7 +20935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20955,7 +20952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20972,7 +20969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20989,7 +20986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21004,7 +21001,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21018,7 +21015,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21032,7 +21029,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21046,7 +21043,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21060,7 +21057,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21084,14 +21081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
@@ -21100,7 +21097,7 @@
     <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21120,7 +21117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21136,7 +21133,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21151,7 +21148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21165,7 +21162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21180,7 +21177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21196,7 +21193,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21213,7 +21210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21231,7 +21228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21247,7 +21244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21265,7 +21262,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21281,7 +21278,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21299,7 +21296,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21315,7 +21312,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21333,7 +21330,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21347,7 +21344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21361,7 +21358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21378,7 +21375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21392,7 +21389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21406,7 +21403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21424,7 +21421,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21438,7 +21435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21452,7 +21449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21466,7 +21463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21476,11 +21473,14 @@
       <c r="C24" s="27" t="s">
         <v>205</v>
       </c>
+      <c r="D24" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="E24" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21527,7 +21527,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21543,7 +21543,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21559,7 +21559,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21575,7 +21575,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21598,14 +21598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -21614,7 +21614,7 @@
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21654,7 +21654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21753,7 +21753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21771,7 +21771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21786,7 +21786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21799,7 +21799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21834,14 +21834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
@@ -21849,7 +21849,7 @@
     <col min="6" max="6" width="19.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21886,7 +21886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21900,7 +21900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21914,7 +21914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21942,7 +21942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21956,7 +21956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -21988,7 +21988,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -22006,7 +22006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22024,7 +22024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22038,7 +22038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22059,14 +22059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -22075,7 +22075,7 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22171,7 +22171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22217,7 +22217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22232,7 +22232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22250,7 +22250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22285,14 +22285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -22301,7 +22301,7 @@
     <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22321,7 +22321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22339,7 +22339,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22370,7 +22370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22385,7 +22385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22400,7 +22400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22414,7 +22414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22447,7 +22447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22463,7 +22463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22476,7 +22476,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22489,7 +22489,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22504,7 +22504,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22519,7 +22519,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22545,14 +22545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -22561,7 +22561,7 @@
     <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22581,7 +22581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22643,7 +22643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22658,7 +22658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22674,7 +22674,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22719,7 +22719,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22735,7 +22735,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22748,7 +22748,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22761,7 +22761,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22776,7 +22776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22797,14 +22797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -22813,7 +22813,7 @@
     <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22833,7 +22833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22877,7 +22877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22890,7 +22890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22905,7 +22905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22935,7 +22935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22950,7 +22950,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22966,7 +22966,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -22984,7 +22984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22997,7 +22997,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -23010,7 +23010,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23025,7 +23025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23046,14 +23046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -23062,7 +23062,7 @@
     <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23082,7 +23082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23116,7 +23116,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23132,7 +23132,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23148,7 +23148,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23164,7 +23164,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23180,7 +23180,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23196,7 +23196,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23212,7 +23212,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23228,7 +23228,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23244,7 +23244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23260,7 +23260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23276,7 +23276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23290,7 +23290,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23311,14 +23311,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -23328,7 +23328,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23420,7 +23420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23455,7 +23455,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23472,7 +23472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23490,7 +23490,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23526,7 +23526,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23542,7 +23542,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23558,7 +23558,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23574,7 +23574,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23606,7 +23606,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23623,7 +23623,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgadadav\Bench\bench_status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="17"/>
@@ -28,8 +33,8 @@
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -726,8 +731,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,33 +1318,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="30">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1389,7 +1394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1404,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1425,7 +1430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="30">
+    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1446,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="30">
+    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1467,7 +1472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1488,7 +1493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="105">
+    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1512,7 +1517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60">
+    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1536,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="45">
+    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1560,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1581,7 +1586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17975,7 +17980,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="75">
+    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -17996,10 +18001,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18019,42 +18024,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18065,24 +18070,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18105,7 +18110,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18123,7 +18128,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18140,7 +18145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18157,7 +18162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18174,7 +18179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18191,7 +18196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18212,7 +18217,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18229,7 +18234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18249,7 +18254,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18267,7 +18272,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18288,7 +18293,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18304,7 +18309,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18322,7 +18327,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18340,7 +18345,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18357,7 +18362,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18371,7 +18376,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18388,7 +18393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18406,24 +18411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18446,7 +18451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18464,7 +18469,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18481,7 +18486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18498,7 +18503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18515,7 +18520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18532,7 +18537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18553,7 +18558,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18567,7 +18572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18590,7 +18595,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18608,7 +18613,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18629,7 +18634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18645,7 +18650,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18666,7 +18671,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18684,7 +18689,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18701,7 +18706,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18718,7 +18723,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18735,7 +18740,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18753,24 +18758,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18793,7 +18798,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18811,7 +18816,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18828,7 +18833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18845,7 +18850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18862,7 +18867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18879,7 +18884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18900,7 +18905,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18914,7 +18919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18937,7 +18942,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18955,7 +18960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18976,7 +18981,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18992,7 +18997,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19013,7 +19018,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19031,7 +19036,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19050,7 +19055,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19067,7 +19072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19084,7 +19089,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19102,24 +19107,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19142,7 +19147,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19160,7 +19165,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19177,7 +19182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19194,7 +19199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19211,7 +19216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19228,7 +19233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19252,7 +19257,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19266,7 +19271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19289,7 +19294,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19307,7 +19312,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19328,7 +19333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19344,7 +19349,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19365,7 +19370,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19383,7 +19388,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19402,7 +19407,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19419,7 +19424,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19436,7 +19441,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19454,24 +19459,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19494,7 +19499,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19512,7 +19517,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19529,7 +19534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19546,7 +19551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19563,7 +19568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19580,7 +19585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19604,7 +19609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19618,7 +19623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19641,7 +19646,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19659,7 +19664,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19680,7 +19685,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19696,7 +19701,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19717,7 +19722,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19735,7 +19740,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19754,7 +19759,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19771,7 +19776,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19788,7 +19793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19806,24 +19811,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19846,7 +19851,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19864,7 +19869,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19881,7 +19886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19898,7 +19903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19915,7 +19920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19932,7 +19937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19956,7 +19961,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19970,7 +19975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19993,7 +19998,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20011,7 +20016,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20032,7 +20037,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20048,7 +20053,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20069,7 +20074,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20087,7 +20092,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20106,7 +20111,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20123,7 +20128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20140,7 +20145,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20158,24 +20163,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20198,7 +20203,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20216,7 +20221,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20233,7 +20238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20250,7 +20255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20267,7 +20272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20284,7 +20289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20308,7 +20313,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20322,7 +20327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20345,7 +20350,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20363,7 +20368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20384,7 +20389,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20400,7 +20405,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20421,7 +20426,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20439,7 +20444,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20458,7 +20463,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20475,7 +20480,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20492,7 +20497,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20510,24 +20515,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20550,7 +20555,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20568,7 +20573,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20585,7 +20590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20602,7 +20607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20619,7 +20624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20643,7 +20648,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20660,7 +20665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20683,7 +20688,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20701,7 +20706,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20724,7 +20729,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20742,7 +20747,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20763,7 +20768,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20781,7 +20786,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20799,7 +20804,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20816,7 +20821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20830,7 +20835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20847,7 +20852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20864,7 +20869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20881,7 +20886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20901,7 +20906,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20918,7 +20923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20935,7 +20940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20952,7 +20957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20969,7 +20974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20986,7 +20991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21001,7 +21006,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21015,7 +21020,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21029,7 +21034,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21043,7 +21048,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21057,7 +21062,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21081,23 +21086,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21117,7 +21122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21133,7 +21138,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21148,7 +21153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21162,7 +21167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21177,7 +21182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21193,7 +21198,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21210,7 +21215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21228,7 +21233,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21244,7 +21249,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21262,7 +21267,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21278,7 +21283,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21296,7 +21301,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21312,7 +21317,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21330,7 +21335,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21340,11 +21345,14 @@
       <c r="C15" s="27" t="s">
         <v>192</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="E15" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21358,7 +21366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21375,7 +21383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21389,7 +21397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21403,7 +21411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21421,7 +21429,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21435,7 +21443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21449,7 +21457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21463,7 +21471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21480,7 +21488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21494,7 +21502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21509,7 +21517,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21527,7 +21535,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21543,7 +21551,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21559,7 +21567,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21575,7 +21583,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21598,23 +21606,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21634,7 +21642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21654,7 +21662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21666,7 +21674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21680,7 +21688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21694,7 +21702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21708,7 +21716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21722,7 +21730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21736,7 +21744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1">
+    <row r="9" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21753,7 +21761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21771,7 +21779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21786,7 +21794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21799,7 +21807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" customHeight="1">
+    <row r="13" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21813,7 +21821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21834,22 +21842,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21869,7 +21877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21886,7 +21894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21900,7 +21908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21914,7 +21922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21928,7 +21936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21942,7 +21950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21956,7 +21964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21970,7 +21978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -21988,7 +21996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -22006,7 +22014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22024,7 +22032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22038,7 +22046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22059,23 +22067,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22095,7 +22103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22112,7 +22120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22126,7 +22134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22143,7 +22151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22157,7 +22165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22171,7 +22179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22185,7 +22193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22199,7 +22207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22217,7 +22225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22232,7 +22240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22250,7 +22258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22264,7 +22272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22285,23 +22293,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22321,7 +22329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22339,7 +22347,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22356,7 +22364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22370,7 +22378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22385,7 +22393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22400,7 +22408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22414,7 +22422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.1" customHeight="1">
+    <row r="8" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22431,7 +22439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
+    <row r="9" spans="1:6" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22447,7 +22455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22463,7 +22471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22476,7 +22484,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="12" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22489,7 +22497,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22504,7 +22512,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22519,7 +22527,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22533,7 +22541,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22545,23 +22553,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22581,7 +22589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22599,7 +22607,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22616,7 +22624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22630,7 +22638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22643,7 +22651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22658,7 +22666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22674,7 +22682,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22688,7 +22696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22703,7 +22711,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22719,7 +22727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22735,7 +22743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22748,7 +22756,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22761,7 +22769,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22776,7 +22784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22797,23 +22805,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22833,7 +22841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22849,7 +22857,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22863,7 +22871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22877,7 +22885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22890,7 +22898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22905,7 +22913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22921,7 +22929,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22935,7 +22943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22950,7 +22958,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22966,7 +22974,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -22984,7 +22992,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22997,7 +23005,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -23010,7 +23018,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23025,7 +23033,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23046,23 +23054,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23082,7 +23090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23100,7 +23108,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23116,7 +23124,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.45" customHeight="1">
+    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23132,7 +23140,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23148,7 +23156,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23164,7 +23172,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23180,7 +23188,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23196,7 +23204,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1">
+    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23212,7 +23220,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23228,7 +23236,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23244,7 +23252,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23260,7 +23268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23276,7 +23284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23290,7 +23298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23311,24 +23319,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23351,7 +23359,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23369,7 +23377,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23386,7 +23394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23403,7 +23411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23420,7 +23428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23437,7 +23445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23455,7 +23463,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23472,7 +23480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23490,7 +23498,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23508,7 +23516,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23526,7 +23534,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23542,7 +23550,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23558,7 +23566,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23574,7 +23582,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23588,7 +23596,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23606,7 +23614,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23623,7 +23631,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgadadav\Bench\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAVYA\Documents\GitHub\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452B4779-A1D5-4E65-9A00-11420055FCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="229">
   <si>
     <t>Date</t>
   </si>
@@ -727,11 +728,14 @@
   <si>
     <t>Learning spring boot</t>
   </si>
+  <si>
+    <t>Spring Core concepts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1325,26 +1329,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1409,7 +1413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1430,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1451,7 +1455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1472,7 +1476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1493,7 +1497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16384" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1517,7 +1521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1541,7 +1545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1565,7 +1569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1586,7 +1590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17980,7 +17984,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18001,10 +18005,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18024,42 +18028,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18070,24 +18074,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18110,7 +18114,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18128,7 +18132,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18145,7 +18149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18162,7 +18166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18179,7 +18183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18196,7 +18200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18217,7 +18221,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18234,7 +18238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18254,7 +18258,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18272,7 +18276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18293,7 +18297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18309,7 +18313,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18327,7 +18331,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18345,7 +18349,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18362,7 +18366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18376,7 +18380,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18393,7 +18397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18411,24 +18415,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18451,7 +18455,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18469,7 +18473,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18486,7 +18490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18503,7 +18507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18520,7 +18524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18537,7 +18541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18558,7 +18562,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18572,7 +18576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18595,7 +18599,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18613,7 +18617,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18634,7 +18638,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18650,7 +18654,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18671,7 +18675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18689,7 +18693,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18706,7 +18710,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18723,7 +18727,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18740,7 +18744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18758,24 +18762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18798,7 +18802,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18816,7 +18820,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18833,7 +18837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18850,7 +18854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18867,7 +18871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18884,7 +18888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18905,7 +18909,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18919,7 +18923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18942,7 +18946,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18960,7 +18964,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18981,7 +18985,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18997,7 +19001,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19018,7 +19022,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19036,7 +19040,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19055,7 +19059,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19072,7 +19076,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19089,7 +19093,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19107,24 +19111,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19147,7 +19151,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19165,7 +19169,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19182,7 +19186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19199,7 +19203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19216,7 +19220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19233,7 +19237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19257,7 +19261,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19271,7 +19275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19294,7 +19298,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19312,7 +19316,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19333,7 +19337,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19349,7 +19353,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19370,7 +19374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19388,7 +19392,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19407,7 +19411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19424,7 +19428,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19441,7 +19445,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19459,24 +19463,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19499,7 +19503,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19517,7 +19521,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19534,7 +19538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19551,7 +19555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19568,7 +19572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19585,7 +19589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19609,7 +19613,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19623,7 +19627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19646,7 +19650,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19664,7 +19668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19685,7 +19689,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19701,7 +19705,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19722,7 +19726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19740,7 +19744,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19759,7 +19763,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19776,7 +19780,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19793,7 +19797,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19811,24 +19815,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19851,7 +19855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19869,7 +19873,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19886,7 +19890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19903,7 +19907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19920,7 +19924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19937,7 +19941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19961,7 +19965,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19975,7 +19979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19998,7 +20002,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20016,7 +20020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20037,7 +20041,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20053,7 +20057,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20074,7 +20078,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20092,7 +20096,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20111,7 +20115,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20128,7 +20132,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20145,7 +20149,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20163,24 +20167,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20203,7 +20207,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20221,7 +20225,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20238,7 +20242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20255,7 +20259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20272,7 +20276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20289,7 +20293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20313,7 +20317,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20327,7 +20331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20350,7 +20354,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20368,7 +20372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20389,7 +20393,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20405,7 +20409,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20426,7 +20430,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20444,7 +20448,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20463,7 +20467,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20480,7 +20484,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20497,7 +20501,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20515,24 +20519,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20555,7 +20559,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20573,7 +20577,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20590,7 +20594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20607,7 +20611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20624,7 +20628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20648,7 +20652,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20665,7 +20669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20688,7 +20692,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20706,7 +20710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20729,7 +20733,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20747,7 +20751,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20768,7 +20772,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20786,7 +20790,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20804,7 +20808,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20821,7 +20825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20835,7 +20839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20852,7 +20856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20869,7 +20873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20886,7 +20890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20906,7 +20910,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20923,7 +20927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20940,7 +20944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20957,7 +20961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20974,7 +20978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20991,7 +20995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21006,7 +21010,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21020,7 +21024,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21034,7 +21038,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21048,7 +21052,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21062,7 +21066,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21086,23 +21090,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21122,7 +21126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21138,7 +21142,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21148,12 +21152,14 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="E3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21167,7 +21173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21182,7 +21188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21198,7 +21204,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21215,7 +21221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21233,7 +21239,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21249,7 +21255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21267,7 +21273,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21283,7 +21289,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21301,7 +21307,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21317,7 +21323,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21335,7 +21341,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21352,7 +21358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21366,7 +21372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21383,7 +21389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21397,7 +21403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21411,7 +21417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21429,7 +21435,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21443,7 +21449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21457,7 +21463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21471,7 +21477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21488,7 +21494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21502,7 +21508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21517,7 +21523,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21535,7 +21541,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21551,7 +21557,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21567,7 +21573,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21583,7 +21589,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21606,23 +21612,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21642,7 +21648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21662,7 +21668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21674,7 +21680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21688,7 +21694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21702,7 +21708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21716,7 +21722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21730,7 +21736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21744,7 +21750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21761,7 +21767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21779,7 +21785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21794,7 +21800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21807,7 +21813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21821,7 +21827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21842,22 +21848,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21877,7 +21883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21894,7 +21900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21908,7 +21914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21922,7 +21928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21936,7 +21942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21950,7 +21956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21964,7 +21970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21978,7 +21984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -21996,7 +22002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -22014,7 +22020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22032,7 +22038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22046,7 +22052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22067,23 +22073,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22103,7 +22109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22120,7 +22126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22134,7 +22140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22151,7 +22157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22165,7 +22171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22179,7 +22185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22193,7 +22199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22207,7 +22213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22225,7 +22231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22240,7 +22246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22258,7 +22264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22272,7 +22278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22293,23 +22299,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22329,7 +22335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22347,7 +22353,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22364,7 +22370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22378,7 +22384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22393,7 +22399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22408,7 +22414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22422,7 +22428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22439,7 +22445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22455,7 +22461,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22471,7 +22477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22484,7 +22490,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22497,7 +22503,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22512,7 +22518,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22527,7 +22533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22541,7 +22547,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22553,23 +22559,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22589,7 +22595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22607,7 +22613,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22624,7 +22630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22638,7 +22644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22651,7 +22657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22666,7 +22672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22682,7 +22688,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22696,7 +22702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22711,7 +22717,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22727,7 +22733,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22743,7 +22749,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22756,7 +22762,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22769,7 +22775,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22784,7 +22790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22805,23 +22811,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22841,7 +22847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22857,7 +22863,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22871,7 +22877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22885,7 +22891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22898,7 +22904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22913,7 +22919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22929,7 +22935,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22943,7 +22949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22958,7 +22964,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22974,7 +22980,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -22992,7 +22998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -23005,7 +23011,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -23018,7 +23024,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23033,7 +23039,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23054,23 +23060,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23090,7 +23096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23108,7 +23114,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23124,7 +23130,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23140,7 +23146,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23156,7 +23162,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23172,7 +23178,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23188,7 +23194,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23204,7 +23210,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23220,7 +23226,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23236,7 +23242,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23252,7 +23258,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23268,7 +23274,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23284,7 +23290,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23298,7 +23304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23319,24 +23325,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23359,7 +23365,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23377,7 +23383,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23394,7 +23400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23411,7 +23417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23428,7 +23434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23445,7 +23451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23463,7 +23469,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23480,7 +23486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23498,7 +23504,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23516,7 +23522,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23534,7 +23540,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23550,7 +23556,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23566,7 +23572,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23582,7 +23588,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23596,7 +23602,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23614,7 +23620,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23631,7 +23637,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAVYA\Documents\GitHub\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452B4779-A1D5-4E65-9A00-11420055FCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6D93BF-25A6-4E42-A2C3-6618679965BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="230">
   <si>
     <t>Date</t>
   </si>
@@ -731,6 +731,9 @@
   <si>
     <t>Spring Core concepts</t>
   </si>
+  <si>
+    <t>Going through Python and PL/SQL  training</t>
+  </si>
 </sst>
 </file>
 
@@ -1076,7 +1079,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1128,7 +1131,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1336,19 +1339,19 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1413,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1434,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1455,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1476,7 +1479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1497,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1521,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1545,7 +1548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1569,7 +1572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1590,7 +1593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17984,7 +17987,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16384" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18005,10 +18008,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18028,42 +18031,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18081,17 +18084,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18114,7 +18117,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18132,7 +18135,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18149,7 +18152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18166,7 +18169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18183,7 +18186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18200,7 +18203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18221,7 +18224,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18238,7 +18241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18258,7 +18261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18276,7 +18279,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18297,7 +18300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18313,7 +18316,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18331,7 +18334,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18349,7 +18352,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18366,7 +18369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18380,7 +18383,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18397,7 +18400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18422,17 +18425,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18455,7 +18458,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18473,7 +18476,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18490,7 +18493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18507,7 +18510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18524,7 +18527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18541,7 +18544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18562,7 +18565,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18576,7 +18579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18599,7 +18602,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18617,7 +18620,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18638,7 +18641,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18654,7 +18657,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18675,7 +18678,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18693,7 +18696,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18710,7 +18713,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18727,7 +18730,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18744,7 +18747,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18769,17 +18772,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18802,7 +18805,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18820,7 +18823,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18837,7 +18840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18854,7 +18857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18871,7 +18874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18888,7 +18891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18909,7 +18912,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18923,7 +18926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18946,7 +18949,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18964,7 +18967,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18985,7 +18988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19001,7 +19004,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19022,7 +19025,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19040,7 +19043,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19059,7 +19062,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19076,7 +19079,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19093,7 +19096,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19118,17 +19121,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19151,7 +19154,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19169,7 +19172,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19186,7 +19189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19203,7 +19206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19220,7 +19223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19237,7 +19240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19261,7 +19264,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19275,7 +19278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19298,7 +19301,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19316,7 +19319,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19337,7 +19340,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19353,7 +19356,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19374,7 +19377,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19392,7 +19395,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19411,7 +19414,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19428,7 +19431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19445,7 +19448,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19470,17 +19473,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19503,7 +19506,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19521,7 +19524,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19538,7 +19541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19555,7 +19558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19572,7 +19575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19589,7 +19592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19613,7 +19616,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19627,7 +19630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19650,7 +19653,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19668,7 +19671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19689,7 +19692,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19705,7 +19708,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19726,7 +19729,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19744,7 +19747,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19763,7 +19766,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19780,7 +19783,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19797,7 +19800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19822,17 +19825,17 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19855,7 +19858,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19873,7 +19876,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19890,7 +19893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19907,7 +19910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19924,7 +19927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19941,7 +19944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19965,7 +19968,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19979,7 +19982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20002,7 +20005,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20020,7 +20023,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20041,7 +20044,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20057,7 +20060,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20078,7 +20081,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20096,7 +20099,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20115,7 +20118,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20132,7 +20135,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20149,7 +20152,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20174,17 +20177,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20207,7 +20210,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20225,7 +20228,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20242,7 +20245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20259,7 +20262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20276,7 +20279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20293,7 +20296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20317,7 +20320,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20331,7 +20334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20354,7 +20357,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20372,7 +20375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20393,7 +20396,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20409,7 +20412,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20430,7 +20433,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20448,7 +20451,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20467,7 +20470,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20484,7 +20487,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20501,7 +20504,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20526,17 +20529,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20559,7 +20562,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20577,7 +20580,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20594,7 +20597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20611,7 +20614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20628,7 +20631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20652,7 +20655,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20669,7 +20672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20692,7 +20695,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20710,7 +20713,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20733,7 +20736,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20751,7 +20754,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20772,7 +20775,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20790,7 +20793,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20808,7 +20811,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20825,7 +20828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20839,7 +20842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20856,7 +20859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20873,7 +20876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20890,7 +20893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20910,7 +20913,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20927,7 +20930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20944,7 +20947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20961,7 +20964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20978,7 +20981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20995,7 +20998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21010,7 +21013,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21024,7 +21027,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21038,7 +21041,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21052,7 +21055,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21066,7 +21069,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21093,20 +21096,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21126,7 +21129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21142,7 +21145,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21159,7 +21162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21173,7 +21176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21188,7 +21191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21204,7 +21207,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21221,7 +21224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21239,7 +21242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21255,7 +21258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21273,7 +21276,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21289,7 +21292,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21307,7 +21310,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21323,7 +21326,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21341,7 +21344,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21358,7 +21361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21372,7 +21375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21389,7 +21392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21403,7 +21406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21417,7 +21420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21435,7 +21438,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21449,7 +21452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21463,7 +21466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21473,11 +21476,14 @@
       <c r="C23" s="27" t="s">
         <v>204</v>
       </c>
+      <c r="D23" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="E23" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21494,7 +21500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21508,7 +21514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21523,7 +21529,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21541,7 +21547,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21557,7 +21563,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21573,7 +21579,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21589,7 +21595,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21619,16 +21625,16 @@
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21648,7 +21654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21668,7 +21674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21680,7 +21686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21694,7 +21700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21708,7 +21714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21722,7 +21728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21736,7 +21742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21750,7 +21756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21767,7 +21773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21785,7 +21791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21800,7 +21806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21813,7 +21819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21827,7 +21833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21855,15 +21861,15 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21883,7 +21889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21900,7 +21906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21914,7 +21920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21928,7 +21934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21942,7 +21948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21956,7 +21962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21970,7 +21976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21984,7 +21990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22002,7 +22008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -22020,7 +22026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22038,7 +22044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22052,7 +22058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22080,16 +22086,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22109,7 +22115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22126,7 +22132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22140,7 +22146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22157,7 +22163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22171,7 +22177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22185,7 +22191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22199,7 +22205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22213,7 +22219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22231,7 +22237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22246,7 +22252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22264,7 +22270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22278,7 +22284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22306,16 +22312,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22335,7 +22341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22353,7 +22359,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22370,7 +22376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22384,7 +22390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22399,7 +22405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22414,7 +22420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22428,7 +22434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22445,7 +22451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22461,7 +22467,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22477,7 +22483,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22490,7 +22496,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22503,7 +22509,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22518,7 +22524,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22533,7 +22539,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22547,7 +22553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22566,16 +22572,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22595,7 +22601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22613,7 +22619,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22630,7 +22636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22644,7 +22650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22657,7 +22663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22672,7 +22678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22688,7 +22694,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22702,7 +22708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22717,7 +22723,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22733,7 +22739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22749,7 +22755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22762,7 +22768,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22775,7 +22781,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22790,7 +22796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22818,16 +22824,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22847,7 +22853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22863,7 +22869,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22877,7 +22883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22891,7 +22897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22904,7 +22910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22919,7 +22925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22935,7 +22941,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22949,7 +22955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22964,7 +22970,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22980,7 +22986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -22998,7 +23004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -23011,7 +23017,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -23024,7 +23030,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23039,7 +23045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23067,16 +23073,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23096,7 +23102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23114,7 +23120,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23130,7 +23136,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23146,7 +23152,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23162,7 +23168,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23178,7 +23184,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23194,7 +23200,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23210,7 +23216,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23226,7 +23232,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23242,7 +23248,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23258,7 +23264,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23274,7 +23280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23290,7 +23296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23304,7 +23310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23332,17 +23338,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23365,7 +23371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23383,7 +23389,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23400,7 +23406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23417,7 +23423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23434,7 +23440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23451,7 +23457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23469,7 +23475,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23486,7 +23492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23504,7 +23510,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23522,7 +23528,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23540,7 +23546,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23556,7 +23562,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23572,7 +23578,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23588,7 +23594,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23602,7 +23608,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23620,7 +23626,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23637,7 +23643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6D93BF-25A6-4E42-A2C3-6618679965BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F6B25-5B12-4187-A04E-F16B69154E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F6B25-5B12-4187-A04E-F16B69154E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C550A184-3412-49E5-BA82-9BD800914CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C550A184-3412-49E5-BA82-9BD800914CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5501293-39D0-42C6-B844-0195A284704A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -732,7 +732,7 @@
     <t>Spring Core concepts</t>
   </si>
   <si>
-    <t>Going through Python and PL/SQL  training</t>
+    <t>Going through Python  training</t>
   </si>
 </sst>
 </file>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5501293-39D0-42C6-B844-0195A284704A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -734,11 +733,14 @@
   <si>
     <t>Going through Python  training</t>
   </si>
+  <si>
+    <t>Oracle PL/SQL training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1332,26 +1334,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1416,7 +1418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1437,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1458,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1479,7 +1481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1500,7 +1502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1524,7 +1526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1548,7 +1550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1572,7 +1574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1593,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17987,7 +17989,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18008,10 +18010,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18031,42 +18033,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18077,24 +18079,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18117,7 +18119,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18135,7 +18137,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18152,7 +18154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18169,7 +18171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18186,7 +18188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18203,7 +18205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18224,7 +18226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18241,7 +18243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18261,7 +18263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18279,7 +18281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18300,7 +18302,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18316,7 +18318,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18334,7 +18336,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18352,7 +18354,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18369,7 +18371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18383,7 +18385,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18400,7 +18402,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18418,24 +18420,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18458,7 +18460,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18476,7 +18478,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18493,7 +18495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18510,7 +18512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18527,7 +18529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18544,7 +18546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18565,7 +18567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18579,7 +18581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18602,7 +18604,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18620,7 +18622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18641,7 +18643,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18657,7 +18659,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18678,7 +18680,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18696,7 +18698,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18713,7 +18715,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18730,7 +18732,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18747,7 +18749,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18765,24 +18767,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18805,7 +18807,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18823,7 +18825,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18840,7 +18842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18857,7 +18859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18874,7 +18876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18891,7 +18893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18912,7 +18914,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18926,7 +18928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18949,7 +18951,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18967,7 +18969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18988,7 +18990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19004,7 +19006,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19025,7 +19027,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19043,7 +19045,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19062,7 +19064,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19079,7 +19081,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19096,7 +19098,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19114,24 +19116,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19154,7 +19156,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19172,7 +19174,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19189,7 +19191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19206,7 +19208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19223,7 +19225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19240,7 +19242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19264,7 +19266,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19278,7 +19280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19301,7 +19303,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19319,7 +19321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19340,7 +19342,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19356,7 +19358,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19377,7 +19379,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19395,7 +19397,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19414,7 +19416,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19431,7 +19433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19448,7 +19450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19466,24 +19468,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19506,7 +19508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19524,7 +19526,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19541,7 +19543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19558,7 +19560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19575,7 +19577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19592,7 +19594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19616,7 +19618,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19630,7 +19632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19653,7 +19655,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19671,7 +19673,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19692,7 +19694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19708,7 +19710,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19729,7 +19731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19747,7 +19749,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19766,7 +19768,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19783,7 +19785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19800,7 +19802,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19818,24 +19820,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19858,7 +19860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19876,7 +19878,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19893,7 +19895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19910,7 +19912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19927,7 +19929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19944,7 +19946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19968,7 +19970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19982,7 +19984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20005,7 +20007,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20023,7 +20025,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20044,7 +20046,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20060,7 +20062,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20081,7 +20083,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20099,7 +20101,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20118,7 +20120,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20135,7 +20137,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20152,7 +20154,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20170,24 +20172,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20210,7 +20212,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20228,7 +20230,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20245,7 +20247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20262,7 +20264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20279,7 +20281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20296,7 +20298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20320,7 +20322,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20334,7 +20336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20357,7 +20359,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20375,7 +20377,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20396,7 +20398,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20412,7 +20414,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20433,7 +20435,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20451,7 +20453,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20470,7 +20472,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20487,7 +20489,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20504,7 +20506,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20522,24 +20524,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20562,7 +20564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20580,7 +20582,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20597,7 +20599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20614,7 +20616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20631,7 +20633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20655,7 +20657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20672,7 +20674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20695,7 +20697,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20713,7 +20715,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20736,7 +20738,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20754,7 +20756,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20775,7 +20777,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20793,7 +20795,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20811,7 +20813,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20828,7 +20830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20842,7 +20844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20859,7 +20861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20876,7 +20878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20893,7 +20895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20913,7 +20915,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20930,7 +20932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20947,7 +20949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20964,7 +20966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20981,7 +20983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20998,7 +21000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21013,7 +21015,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21027,7 +21029,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21041,7 +21043,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21055,7 +21057,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21069,7 +21071,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21093,23 +21095,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21129,7 +21131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21145,7 +21147,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21162,7 +21164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21176,7 +21178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21191,7 +21193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21207,7 +21209,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21224,7 +21226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21242,7 +21244,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21258,7 +21260,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21276,7 +21278,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21292,7 +21294,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21310,7 +21312,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21326,7 +21328,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21344,7 +21346,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21361,7 +21363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21375,7 +21377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21392,7 +21394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21402,11 +21404,14 @@
       <c r="C18" s="27" t="s">
         <v>196</v>
       </c>
+      <c r="D18" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E18" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21420,7 +21425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21438,7 +21443,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21452,7 +21457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21466,7 +21471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21483,7 +21488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21500,7 +21505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21514,7 +21519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21529,7 +21534,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21547,7 +21552,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21563,7 +21568,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21579,7 +21584,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21595,7 +21600,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21618,23 +21623,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21654,7 +21659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21674,7 +21679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21686,7 +21691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21700,7 +21705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21714,7 +21719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21728,7 +21733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21742,7 +21747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21756,7 +21761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21773,7 +21778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21791,7 +21796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21806,7 +21811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21819,7 +21824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21833,7 +21838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21854,22 +21859,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21889,7 +21894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21906,7 +21911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21920,7 +21925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21934,7 +21939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21948,7 +21953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21962,7 +21967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21976,7 +21981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21990,7 +21995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22008,7 +22013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -22026,7 +22031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22044,7 +22049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22058,7 +22063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22079,23 +22084,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22115,7 +22120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22132,7 +22137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22146,7 +22151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22163,7 +22168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22177,7 +22182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22191,7 +22196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22205,7 +22210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22219,7 +22224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22237,7 +22242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22252,7 +22257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22270,7 +22275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22284,7 +22289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22305,23 +22310,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22341,7 +22346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22359,7 +22364,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22376,7 +22381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22390,7 +22395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22405,7 +22410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22420,7 +22425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22434,7 +22439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22451,7 +22456,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22467,7 +22472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22483,7 +22488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22496,7 +22501,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22509,7 +22514,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22524,7 +22529,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22539,7 +22544,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22553,7 +22558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22565,23 +22570,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22601,7 +22606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22619,7 +22624,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22636,7 +22641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22650,7 +22655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22663,7 +22668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22678,7 +22683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22694,7 +22699,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22708,7 +22713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22723,7 +22728,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22739,7 +22744,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22755,7 +22760,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22768,7 +22773,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22781,7 +22786,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22796,7 +22801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22817,23 +22822,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22853,7 +22858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22869,7 +22874,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22883,7 +22888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22897,7 +22902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22910,7 +22915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22925,7 +22930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22941,7 +22946,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22955,7 +22960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22970,7 +22975,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22986,7 +22991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -23004,7 +23009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -23017,7 +23022,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -23030,7 +23035,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23045,7 +23050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23066,23 +23071,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23102,7 +23107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23120,7 +23125,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23136,7 +23141,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23152,7 +23157,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23168,7 +23173,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23184,7 +23189,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23200,7 +23205,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23216,7 +23221,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23232,7 +23237,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23248,7 +23253,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23264,7 +23269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23280,7 +23285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23296,7 +23301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23310,7 +23315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23331,24 +23336,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23371,7 +23376,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23389,7 +23394,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23406,7 +23411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23423,7 +23428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23440,7 +23445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23457,7 +23462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23475,7 +23480,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23492,7 +23497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23510,7 +23515,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23528,7 +23533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23546,7 +23551,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23562,7 +23567,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23578,7 +23583,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23594,7 +23599,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23608,7 +23613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23626,7 +23631,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23643,7 +23648,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bench\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -33,8 +28,8 @@
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -716,9 +711,6 @@
     <t>Going through product data management training</t>
   </si>
   <si>
-    <t>Going through React Js Training</t>
-  </si>
-  <si>
     <t>Interview prepration</t>
   </si>
   <si>
@@ -736,12 +728,15 @@
   <si>
     <t>Oracle PL/SQL training</t>
   </si>
+  <si>
+    <t>Going through Java Script Training - 4/22/20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,7 +1076,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1133,7 +1128,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1327,33 +1322,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16384" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16384" ht="30">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16384">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1418,7 +1413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1439,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16384" ht="30">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1460,7 +1455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16384" ht="30">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1481,7 +1476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16384">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1502,7 +1497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16384" ht="105">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1526,7 +1521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16384" ht="60">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1550,7 +1545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16384" ht="45">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1574,7 +1569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16384">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1595,7 +1590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16384" s="4" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17989,7 +17984,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16384" ht="75">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18010,10 +18005,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16384">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16384">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18033,42 +18028,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18079,24 +18074,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18119,7 +18114,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18137,7 +18132,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18154,7 +18149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18171,7 +18166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18188,7 +18183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18205,7 +18200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18226,7 +18221,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18243,7 +18238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18263,7 +18258,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18281,7 +18276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18302,7 +18297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18318,7 +18313,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18336,7 +18331,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18354,7 +18349,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18371,7 +18366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18385,7 +18380,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18402,7 +18397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18420,24 +18415,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18460,7 +18455,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18478,7 +18473,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18495,7 +18490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18512,7 +18507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18529,7 +18524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18546,7 +18541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18567,7 +18562,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18581,7 +18576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18604,7 +18599,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18622,7 +18617,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18643,7 +18638,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18659,7 +18654,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18680,7 +18675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18698,7 +18693,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18715,7 +18710,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18732,7 +18727,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18749,7 +18744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18767,24 +18762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18807,7 +18802,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18825,7 +18820,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18842,7 +18837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18859,7 +18854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18876,7 +18871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18893,7 +18888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18914,7 +18909,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18928,7 +18923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18951,7 +18946,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18969,7 +18964,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18990,7 +18985,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19006,7 +19001,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19027,7 +19022,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19045,7 +19040,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19064,7 +19059,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19081,7 +19076,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19098,7 +19093,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19116,24 +19111,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19156,7 +19151,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19174,7 +19169,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19191,7 +19186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19208,7 +19203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19225,7 +19220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19242,7 +19237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19266,7 +19261,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19280,7 +19275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19303,7 +19298,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19321,7 +19316,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19342,7 +19337,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19358,7 +19353,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19379,7 +19374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19397,7 +19392,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19416,7 +19411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19433,7 +19428,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19450,7 +19445,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19468,24 +19463,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19508,7 +19503,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19526,7 +19521,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19543,7 +19538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19560,7 +19555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19577,7 +19572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19594,7 +19589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19618,7 +19613,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19632,7 +19627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19655,7 +19650,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19673,7 +19668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19694,7 +19689,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19710,7 +19705,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19731,7 +19726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19749,7 +19744,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19768,7 +19763,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19785,7 +19780,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19802,7 +19797,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19820,24 +19815,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19860,7 +19855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19878,7 +19873,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19895,7 +19890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19912,7 +19907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19929,7 +19924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19946,7 +19941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19970,7 +19965,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19984,7 +19979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20007,7 +20002,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20025,7 +20020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20046,7 +20041,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20062,7 +20057,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20083,7 +20078,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20101,7 +20096,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20120,7 +20115,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20137,7 +20132,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20154,7 +20149,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20172,24 +20167,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20212,7 +20207,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20230,7 +20225,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20247,7 +20242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20264,7 +20259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20281,7 +20276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20298,7 +20293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20322,7 +20317,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20336,7 +20331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20359,7 +20354,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20377,7 +20372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20398,7 +20393,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20414,7 +20409,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20435,7 +20430,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20453,7 +20448,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20472,7 +20467,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20489,7 +20484,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20506,7 +20501,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20524,24 +20519,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20564,7 +20559,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20582,7 +20577,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20599,7 +20594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20616,7 +20611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20633,7 +20628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20657,7 +20652,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20674,7 +20669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20697,7 +20692,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20715,7 +20710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20738,7 +20733,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20756,7 +20751,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20777,7 +20772,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20795,7 +20790,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20813,7 +20808,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20830,7 +20825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20844,7 +20839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20861,7 +20856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20878,7 +20873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20895,7 +20890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20915,7 +20910,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20932,7 +20927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20949,7 +20944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20966,7 +20961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20983,7 +20978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21000,7 +20995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21015,7 +21010,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21029,7 +21024,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21043,7 +21038,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21057,7 +21052,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21071,7 +21066,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21095,23 +21090,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21131,7 +21126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21147,7 +21142,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21158,13 +21153,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21178,7 +21173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21193,7 +21188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21209,7 +21204,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21226,7 +21221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21244,7 +21239,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21260,7 +21255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21278,7 +21273,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21294,7 +21289,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21309,10 +21304,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21328,7 +21323,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21346,7 +21341,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21363,7 +21358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21377,7 +21372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21388,13 +21383,13 @@
         <v>194</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21405,13 +21400,13 @@
         <v>196</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21425,7 +21420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21443,7 +21438,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21457,7 +21452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21471,7 +21466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21482,13 +21477,13 @@
         <v>204</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21499,13 +21494,13 @@
         <v>205</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21519,7 +21514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21534,7 +21529,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21545,14 +21540,14 @@
         <v>213</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E27" s="26">
         <v>9</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21568,7 +21563,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21584,7 +21579,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21600,7 +21595,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21623,23 +21618,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21659,7 +21654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21679,7 +21674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21691,7 +21686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21705,7 +21700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21719,7 +21714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21733,7 +21728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21747,7 +21742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21761,7 +21756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21778,7 +21773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21796,7 +21791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21811,7 +21806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21824,7 +21819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21838,7 +21833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21859,22 +21854,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21894,7 +21889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21911,7 +21906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21925,7 +21920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21939,7 +21934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21953,7 +21948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21967,7 +21962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21981,7 +21976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21995,7 +21990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22013,7 +22008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -22031,7 +22026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22049,7 +22044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22063,7 +22058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22084,23 +22079,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22120,7 +22115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22137,7 +22132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22151,7 +22146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22168,7 +22163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22182,7 +22177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22196,7 +22191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22210,7 +22205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22224,7 +22219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22242,7 +22237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22257,7 +22252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22275,7 +22270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22289,7 +22284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22310,23 +22305,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22346,7 +22341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22364,7 +22359,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22381,7 +22376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22395,7 +22390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22410,7 +22405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22425,7 +22420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22439,7 +22434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22456,7 +22451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22472,7 +22467,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22488,7 +22483,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22501,7 +22496,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22514,7 +22509,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="30">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22529,7 +22524,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22544,7 +22539,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22558,7 +22553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22570,23 +22565,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22606,7 +22601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22624,7 +22619,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22641,7 +22636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22655,7 +22650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22668,7 +22663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22683,7 +22678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22699,7 +22694,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22713,7 +22708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22728,7 +22723,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22744,7 +22739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22760,7 +22755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22773,7 +22768,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22786,7 +22781,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22801,7 +22796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22822,23 +22817,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22858,7 +22853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22874,7 +22869,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22888,7 +22883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22902,7 +22897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22915,7 +22910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22930,7 +22925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22946,7 +22941,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22960,7 +22955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22975,7 +22970,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22991,7 +22986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -23009,7 +23004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -23022,7 +23017,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -23035,7 +23030,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23050,7 +23045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23071,23 +23066,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23107,7 +23102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23125,7 +23120,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23141,7 +23136,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23157,7 +23152,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23173,7 +23168,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23189,7 +23184,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23205,7 +23200,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23221,7 +23216,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23237,7 +23232,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23253,7 +23248,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23269,7 +23264,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23285,7 +23280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23301,7 +23296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23315,7 +23310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23336,24 +23331,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23376,7 +23371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23394,7 +23389,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23411,7 +23406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23428,7 +23423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23445,7 +23440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23462,7 +23457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23480,7 +23475,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23497,7 +23492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23515,7 +23510,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23533,7 +23528,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23551,7 +23546,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23567,7 +23562,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23583,7 +23578,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23599,7 +23594,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23613,7 +23608,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23631,7 +23626,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23648,7 +23643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
-  <workbookProtection lockStructure="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849198F-573A-4FE7-8571-7F712D02630F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -26,10 +31,14 @@
     <sheet name="Status-10-04-2020" sheetId="32" r:id="rId16"/>
     <sheet name="Status-17-04-2020" sheetId="34" r:id="rId17"/>
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
+    <sheet name="Status-21-04-2020" sheetId="36" r:id="rId19"/>
+    <sheet name="Status-22-04-2020" sheetId="37" r:id="rId20"/>
+    <sheet name="Status-23-04-2020" sheetId="38" r:id="rId21"/>
+    <sheet name="Status-24-04-2020" sheetId="39" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -37,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="232">
   <si>
     <t>Date</t>
   </si>
@@ -731,12 +740,16 @@
   <si>
     <t>Going through Java Script Training - 4/22/20</t>
   </si>
+  <si>
+    <t>Going through Devops Training - Jenkins pipeline.
+2. attended interview for CIA, preparing for next round.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,33 +1335,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="30">
+    <row r="2" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1398,7 +1411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1413,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1434,7 +1447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="30">
+    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1455,7 +1468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="30">
+    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1476,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1497,7 +1510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="105">
+    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1521,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60">
+    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1545,7 +1558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="45">
+    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1569,7 +1582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1590,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17984,7 +17997,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="75">
+    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18005,10 +18018,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18028,42 +18041,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18074,24 +18087,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18114,7 +18127,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18132,7 +18145,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18149,7 +18162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18166,7 +18179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18183,7 +18196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18200,7 +18213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18221,7 +18234,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18238,7 +18251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18258,7 +18271,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18276,7 +18289,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18297,7 +18310,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18313,7 +18326,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18331,7 +18344,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18349,7 +18362,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18366,7 +18379,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18380,7 +18393,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18397,7 +18410,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18415,24 +18428,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18455,7 +18468,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18473,7 +18486,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18490,7 +18503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18507,7 +18520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18524,7 +18537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18541,7 +18554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18562,7 +18575,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18576,7 +18589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18599,7 +18612,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18617,7 +18630,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18638,7 +18651,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18654,7 +18667,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18675,7 +18688,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18693,7 +18706,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18710,7 +18723,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18727,7 +18740,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18744,7 +18757,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18762,24 +18775,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18802,7 +18815,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18820,7 +18833,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18837,7 +18850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18854,7 +18867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18871,7 +18884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18888,7 +18901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18909,7 +18922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18923,7 +18936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18946,7 +18959,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18964,7 +18977,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18985,7 +18998,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19001,7 +19014,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19022,7 +19035,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19040,7 +19053,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19059,7 +19072,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19076,7 +19089,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19093,7 +19106,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19111,24 +19124,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19151,7 +19164,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19169,7 +19182,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19186,7 +19199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19203,7 +19216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19220,7 +19233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19237,7 +19250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19261,7 +19274,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19275,7 +19288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19298,7 +19311,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19316,7 +19329,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19337,7 +19350,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19353,7 +19366,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19374,7 +19387,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19392,7 +19405,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19411,7 +19424,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19428,7 +19441,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19445,7 +19458,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19463,24 +19476,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19503,7 +19516,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19521,7 +19534,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19538,7 +19551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19555,7 +19568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19572,7 +19585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19589,7 +19602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19613,7 +19626,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19627,7 +19640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19650,7 +19663,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19668,7 +19681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19689,7 +19702,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19705,7 +19718,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19726,7 +19739,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19744,7 +19757,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19763,7 +19776,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19780,7 +19793,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19797,7 +19810,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19815,24 +19828,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19855,7 +19868,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19873,7 +19886,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19890,7 +19903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19907,7 +19920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19924,7 +19937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19941,7 +19954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19965,7 +19978,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19979,7 +19992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20002,7 +20015,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20020,7 +20033,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20041,7 +20054,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20057,7 +20070,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20078,7 +20091,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20096,7 +20109,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20115,7 +20128,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20132,7 +20145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20149,7 +20162,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20167,24 +20180,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20207,7 +20220,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20225,7 +20238,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20242,7 +20255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20259,7 +20272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20276,7 +20289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20293,7 +20306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20317,7 +20330,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20331,7 +20344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20354,7 +20367,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20372,7 +20385,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20393,7 +20406,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20409,7 +20422,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20430,7 +20443,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20448,7 +20461,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20467,7 +20480,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20484,7 +20497,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20501,7 +20514,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20519,24 +20532,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20559,7 +20572,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20577,7 +20590,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20594,7 +20607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20611,7 +20624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20628,7 +20641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20652,7 +20665,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20669,7 +20682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20692,7 +20705,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20710,7 +20723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20733,7 +20746,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20751,7 +20764,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20772,7 +20785,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20790,7 +20803,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20808,7 +20821,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20825,7 +20838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20839,7 +20852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20856,7 +20869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20873,7 +20886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20890,7 +20903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20910,7 +20923,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20927,7 +20940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20944,7 +20957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20961,7 +20974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20978,7 +20991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20995,7 +21008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21010,7 +21023,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21024,7 +21037,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21038,7 +21051,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21052,7 +21065,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21066,7 +21079,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21090,23 +21103,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21126,7 +21139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21142,7 +21155,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21159,7 +21172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21173,7 +21186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21188,7 +21201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21204,7 +21217,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21221,7 +21234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21239,7 +21252,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21255,7 +21268,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21273,7 +21286,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21289,7 +21302,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21307,7 +21320,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21323,7 +21336,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21341,7 +21354,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21358,7 +21371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21372,7 +21385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21389,7 +21402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21406,7 +21419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21420,7 +21433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21438,7 +21451,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21452,7 +21465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21466,7 +21479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21483,7 +21496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21500,7 +21513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21514,7 +21527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21529,7 +21542,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21547,7 +21560,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21563,7 +21576,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21579,7 +21592,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21595,7 +21608,515 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7C544D-9F63-4380-BC97-2CD68795D673}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55">
+        <v>94597</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67908</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>156137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55">
+        <v>189815</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55">
+        <v>119065</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>185010</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>154447</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <v>9</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58">
+        <v>175816</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="51">
+        <v>9</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="55">
+        <v>191221</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="18">
+        <v>9</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55">
+        <v>46014906</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="18">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <v>156635</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="18">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <v>168293</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="18">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <v>151146</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <v>156996</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <v>185599</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <v>96340</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <v>108444</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12">
+        <v>139666</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="51">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <v>141023</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27">
+        <v>178684</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27">
+        <v>187084</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <v>46013133</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27">
+        <v>151158</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27">
+        <v>142742</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
+        <v>142584</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="26">
+        <v>9</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12">
+        <v>100578</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12">
+        <v>176569</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12">
+        <v>190871</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21618,23 +22139,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21654,7 +22175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21674,7 +22195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21686,7 +22207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21700,7 +22221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21714,7 +22235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21728,7 +22249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21742,7 +22263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21756,7 +22277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1">
+    <row r="9" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21773,7 +22294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21791,7 +22312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21806,7 +22327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21819,7 +22340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" customHeight="1">
+    <row r="13" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21833,7 +22354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21853,23 +22374,1541 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A65712-1E37-4785-81DF-4FB5C7685490}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55">
+        <v>94597</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67908</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>156137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55">
+        <v>189815</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55">
+        <v>119065</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>185010</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>154447</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <v>9</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58">
+        <v>175816</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="51">
+        <v>9</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="55">
+        <v>191221</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="18">
+        <v>9</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55">
+        <v>46014906</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="18">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <v>156635</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="18">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <v>168293</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="18">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <v>151146</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <v>156996</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <v>185599</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <v>96340</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <v>108444</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12">
+        <v>139666</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="51">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <v>141023</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27">
+        <v>178684</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27">
+        <v>187084</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <v>46013133</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27">
+        <v>151158</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27">
+        <v>142742</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
+        <v>142584</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="26">
+        <v>9</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12">
+        <v>100578</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12">
+        <v>176569</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12">
+        <v>190871</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F076D7D1-4A44-4DF6-9EDC-8DD1D1068E68}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55">
+        <v>94597</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67908</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>156137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55">
+        <v>189815</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55">
+        <v>119065</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>185010</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>154447</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <v>9</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58">
+        <v>175816</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="51">
+        <v>9</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="55">
+        <v>191221</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="18">
+        <v>9</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55">
+        <v>46014906</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="18">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <v>156635</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="18">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <v>168293</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="18">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <v>151146</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <v>156996</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <v>185599</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <v>96340</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <v>108444</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12">
+        <v>139666</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="51">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <v>141023</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27">
+        <v>178684</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27">
+        <v>187084</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <v>46013133</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27">
+        <v>151158</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27">
+        <v>142742</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
+        <v>142584</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="26">
+        <v>9</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12">
+        <v>100578</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12">
+        <v>176569</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12">
+        <v>190871</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45953738-7004-42F7-BFC2-4FD8F2577963}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55">
+        <v>94597</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67908</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>156137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55">
+        <v>189815</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55">
+        <v>119065</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>185010</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>154447</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <v>9</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58">
+        <v>175816</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="51">
+        <v>9</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="55">
+        <v>191221</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="18">
+        <v>9</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55">
+        <v>46014906</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="18">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <v>156635</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="18">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <v>168293</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="18">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <v>151146</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <v>156996</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <v>185599</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <v>96340</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <v>108444</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12">
+        <v>139666</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="51">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <v>141023</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27">
+        <v>178684</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27">
+        <v>187084</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <v>46013133</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27">
+        <v>151158</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27">
+        <v>142742</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
+        <v>142584</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="26">
+        <v>9</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12">
+        <v>100578</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12">
+        <v>176569</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12">
+        <v>190871</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21889,7 +23928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21906,7 +23945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21920,7 +23959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21934,7 +23973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21948,7 +23987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21962,7 +24001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21976,7 +24015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21990,7 +24029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22008,7 +24047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -22026,7 +24065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22044,7 +24083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22058,7 +24097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22079,23 +24118,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22115,7 +24154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22132,7 +24171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22146,7 +24185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22163,7 +24202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22177,7 +24216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22191,7 +24230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22205,7 +24244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22219,7 +24258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22237,7 +24276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22252,7 +24291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22270,7 +24309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22284,7 +24323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22305,23 +24344,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22341,7 +24380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22359,7 +24398,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22376,7 +24415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22390,7 +24429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22405,7 +24444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22420,7 +24459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22434,7 +24473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.1" customHeight="1">
+    <row r="8" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22451,7 +24490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
+    <row r="9" spans="1:6" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22467,7 +24506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22483,7 +24522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22496,7 +24535,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="12" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22509,7 +24548,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22524,7 +24563,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22539,7 +24578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22553,7 +24592,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22565,23 +24604,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22601,7 +24640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22619,7 +24658,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22636,7 +24675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22650,7 +24689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22663,7 +24702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22678,7 +24717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22694,7 +24733,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22708,7 +24747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22723,7 +24762,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22739,7 +24778,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22755,7 +24794,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22768,7 +24807,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22781,7 +24820,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22796,7 +24835,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22817,23 +24856,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22853,7 +24892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22869,7 +24908,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22883,7 +24922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22897,7 +24936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22910,7 +24949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22925,7 +24964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22941,7 +24980,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22955,7 +24994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22970,7 +25009,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22986,7 +25025,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -23004,7 +25043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -23017,7 +25056,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -23030,7 +25069,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23045,7 +25084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23066,23 +25105,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23102,7 +25141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23120,7 +25159,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23136,7 +25175,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.45" customHeight="1">
+    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23152,7 +25191,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23168,7 +25207,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23184,7 +25223,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23200,7 +25239,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23216,7 +25255,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1">
+    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23232,7 +25271,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23248,7 +25287,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23264,7 +25303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23280,7 +25319,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23296,7 +25335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23310,7 +25349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23331,24 +25370,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23371,7 +25410,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23389,7 +25428,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23406,7 +25445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23423,7 +25462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23440,7 +25479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23457,7 +25496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23475,7 +25514,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23492,7 +25531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23510,7 +25549,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23528,7 +25567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23546,7 +25585,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23562,7 +25601,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23578,7 +25617,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23594,7 +25633,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23608,7 +25647,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23626,7 +25665,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23643,7 +25682,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prduhan\Documents\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849198F-573A-4FE7-8571-7F712D02630F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="233">
   <si>
     <t>Date</t>
   </si>
@@ -744,11 +743,14 @@
     <t>Going through Devops Training - Jenkins pipeline.
 2. attended interview for CIA, preparing for next round.</t>
   </si>
+  <si>
+    <t>Getting Product Data management training &amp; learning SQL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1342,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -18087,7 +18089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18428,7 +18430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18775,7 +18777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19124,7 +19126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19476,7 +19478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -19828,7 +19830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20180,7 +20182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -20532,7 +20534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21103,10 +21105,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -21631,11 +21633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7C544D-9F63-4380-BC97-2CD68795D673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21862,7 +21864,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21871,6 +21873,9 @@
       </c>
       <c r="C14" s="27" t="s">
         <v>191</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="E14" s="18">
         <v>9</v>
@@ -22139,7 +22144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -22375,11 +22380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A65712-1E37-4785-81DF-4FB5C7685490}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22606,7 +22611,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -22615,6 +22620,9 @@
       </c>
       <c r="C14" s="27" t="s">
         <v>191</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="E14" s="18">
         <v>9</v>
@@ -22883,7 +22891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F076D7D1-4A44-4DF6-9EDC-8DD1D1068E68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23388,7 +23396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45953738-7004-42F7-BFC2-4FD8F2577963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23893,7 +23901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24118,7 +24126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24344,7 +24352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -24604,7 +24612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24856,7 +24864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -25105,7 +25113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -25370,7 +25378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prduhan\Documents\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thejms\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="234">
   <si>
     <t>Date</t>
   </si>
@@ -746,11 +746,14 @@
   <si>
     <t>Getting Product Data management training &amp; learning SQL</t>
   </si>
+  <si>
+    <t>Product data management training and going through Oracle/PLSQL training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -21108,8 +21111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21515,7 +21518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21524,6 +21527,9 @@
       </c>
       <c r="C25" s="27" t="s">
         <v>210</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E25" s="18">
         <v>9</v>
@@ -21636,8 +21642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22026,7 +22032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -22035,6 +22041,9 @@
       </c>
       <c r="C25" s="27" t="s">
         <v>210</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E25" s="18">
         <v>9</v>
@@ -22383,8 +22392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22773,7 +22782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -22782,6 +22791,9 @@
       </c>
       <c r="C25" s="27" t="s">
         <v>210</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E25" s="18">
         <v>9</v>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thejms\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench-stat\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -749,11 +749,14 @@
   <si>
     <t>Product data management training and going through Oracle/PLSQL training</t>
   </si>
+  <si>
+    <t>doing Angular training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -21111,537 +21114,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="55">
-        <v>94597</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14">
-        <v>9</v>
-      </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>67908</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>156137</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="55">
-        <v>189815</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="55">
-        <v>119065</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="16">
-        <v>9</v>
-      </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>185010</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>154447</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="18">
-        <v>9</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18">
-        <v>9</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="58">
-        <v>175816</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="51">
-        <v>9</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="55">
-        <v>191221</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="18">
-        <v>9</v>
-      </c>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="55">
-        <v>46014906</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="18">
-        <v>9</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27">
-        <v>156635</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="18">
-        <v>9</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27">
-        <v>168293</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" s="18">
-        <v>9</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27">
-        <v>151146</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27">
-        <v>156996</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27">
-        <v>185599</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27">
-        <v>96340</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27">
-        <v>108444</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12">
-        <v>139666</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="51">
-        <v>9</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27">
-        <v>141023</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27">
-        <v>178684</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27">
-        <v>187084</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27">
-        <v>46013133</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27">
-        <v>151158</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
-      <c r="B26" s="27">
-        <v>142742</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="26">
-        <v>26</v>
-      </c>
-      <c r="B27" s="27">
-        <v>142584</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" s="26">
-        <v>9</v>
-      </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12">
-        <v>100578</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12">
-        <v>176569</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12">
-        <v>190871</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
-        <v>30</v>
-      </c>
-      <c r="B31" s="33">
-        <v>154223</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
@@ -21701,7 +21173,9 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>227</v>
+      </c>
       <c r="E3">
         <v>9</v>
       </c>
@@ -21865,6 +21339,537 @@
         <v>189</v>
       </c>
       <c r="D13" s="27"/>
+      <c r="E13" s="18">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <v>168293</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="18">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <v>151146</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <v>156996</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <v>185599</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <v>96340</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <v>108444</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12">
+        <v>139666</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="51">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <v>141023</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27">
+        <v>178684</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27">
+        <v>187084</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <v>46013133</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27">
+        <v>151158</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27">
+        <v>142742</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
+        <v>142584</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="26">
+        <v>9</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12">
+        <v>100578</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12">
+        <v>176569</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12">
+        <v>190871</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55">
+        <v>94597</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67908</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>156137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55">
+        <v>189815</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55">
+        <v>119065</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>185010</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>154447</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <v>9</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58">
+        <v>175816</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="51">
+        <v>9</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="55">
+        <v>191221</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="18">
+        <v>9</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55">
+        <v>46014906</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="18">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <v>156635</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>234</v>
+      </c>
       <c r="E13" s="18">
         <v>9</v>
       </c>
@@ -22392,8 +22397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22614,7 +22619,9 @@
       <c r="C13" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>234</v>
+      </c>
       <c r="E13" s="18">
         <v>9</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench-stat\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bench\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="236">
   <si>
     <t>Date</t>
   </si>
@@ -752,11 +752,14 @@
   <si>
     <t>doing Angular training</t>
   </si>
+  <si>
+    <t>Getting Product Data management training and learning spring boot.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -21645,8 +21648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21893,7 +21896,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21902,6 +21905,9 @@
       </c>
       <c r="C15" s="27" t="s">
         <v>192</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="E15" s="18">
         <v>9</v>
@@ -22397,8 +22403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22645,7 +22651,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -22654,6 +22660,9 @@
       </c>
       <c r="C15" s="27" t="s">
         <v>192</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="E15" s="18">
         <v>9</v>
@@ -22913,7 +22922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bench\bench_status\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="17" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -36,8 +31,8 @@
     <sheet name="Status-24-04-2020" sheetId="39" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="237">
   <si>
     <t>Date</t>
   </si>
@@ -755,12 +750,15 @@
   <si>
     <t>Getting Product Data management training and learning spring boot.</t>
   </si>
+  <si>
+    <t>Going through SQL Training 20/04/20 to 24/04/20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,33 +1344,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="29.54296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16384" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16384" ht="30">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16384">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1437,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1458,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16384" ht="30">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1479,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16384" ht="30">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1500,7 +1498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16384">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1521,7 +1519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16384" ht="105">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1545,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16384" ht="60">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1569,7 +1567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16384" ht="45">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1593,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16384">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1614,7 +1612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16384" s="4" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -18008,7 +18006,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16384" ht="75">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18029,10 +18027,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16384">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16384">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18052,42 +18050,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18098,24 +18096,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18138,7 +18136,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18156,7 +18154,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18173,7 +18171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18190,7 +18188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18207,7 +18205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18224,7 +18222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18245,7 +18243,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18262,7 +18260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18282,7 +18280,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18300,7 +18298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18321,7 +18319,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18337,7 +18335,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18355,7 +18353,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18373,7 +18371,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18390,7 +18388,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18404,7 +18402,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18421,7 +18419,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18439,24 +18437,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18479,7 +18477,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18497,7 +18495,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18514,7 +18512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18531,7 +18529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18548,7 +18546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18565,7 +18563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18586,7 +18584,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18600,7 +18598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18623,7 +18621,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18641,7 +18639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18662,7 +18660,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18678,7 +18676,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18699,7 +18697,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18717,7 +18715,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18734,7 +18732,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18751,7 +18749,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18768,7 +18766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18786,24 +18784,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18826,7 +18824,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18844,7 +18842,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18861,7 +18859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18878,7 +18876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18895,7 +18893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18912,7 +18910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18933,7 +18931,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18947,7 +18945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18970,7 +18968,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18988,7 +18986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19009,7 +19007,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19025,7 +19023,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19046,7 +19044,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19064,7 +19062,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19083,7 +19081,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19100,7 +19098,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19117,7 +19115,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19135,24 +19133,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19175,7 +19173,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19193,7 +19191,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19210,7 +19208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19227,7 +19225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19244,7 +19242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19261,7 +19259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19285,7 +19283,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19299,7 +19297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19322,7 +19320,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19340,7 +19338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19361,7 +19359,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19377,7 +19375,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19398,7 +19396,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19416,7 +19414,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19435,7 +19433,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19452,7 +19450,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19469,7 +19467,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19487,24 +19485,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19527,7 +19525,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19545,7 +19543,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19562,7 +19560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19579,7 +19577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19596,7 +19594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19613,7 +19611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19637,7 +19635,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19651,7 +19649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19674,7 +19672,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19692,7 +19690,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19713,7 +19711,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19729,7 +19727,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19750,7 +19748,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19768,7 +19766,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19787,7 +19785,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19804,7 +19802,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19821,7 +19819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19839,24 +19837,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19879,7 +19877,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19897,7 +19895,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19914,7 +19912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19931,7 +19929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19948,7 +19946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19965,7 +19963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19989,7 +19987,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20003,7 +20001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20026,7 +20024,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20044,7 +20042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20065,7 +20063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20081,7 +20079,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20102,7 +20100,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20120,7 +20118,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20139,7 +20137,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20156,7 +20154,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20173,7 +20171,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20191,24 +20189,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20231,7 +20229,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20249,7 +20247,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20266,7 +20264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20283,7 +20281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20300,7 +20298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20317,7 +20315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20341,7 +20339,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20355,7 +20353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20378,7 +20376,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20396,7 +20394,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20417,7 +20415,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20433,7 +20431,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20454,7 +20452,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20472,7 +20470,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20491,7 +20489,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20508,7 +20506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20525,7 +20523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20543,24 +20541,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20583,7 +20581,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20601,7 +20599,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20618,7 +20616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20635,7 +20633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20652,7 +20650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20676,7 +20674,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20693,7 +20691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20716,7 +20714,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20734,7 +20732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20757,7 +20755,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20775,7 +20773,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20796,7 +20794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20814,7 +20812,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20832,7 +20830,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20849,7 +20847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20863,7 +20861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20880,7 +20878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20897,7 +20895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20914,7 +20912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20934,7 +20932,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20951,7 +20949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20968,7 +20966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20985,7 +20983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21002,7 +21000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21019,7 +21017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21034,7 +21032,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21048,7 +21046,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21062,7 +21060,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21076,7 +21074,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21090,7 +21088,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21114,23 +21112,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21150,7 +21148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21166,7 +21164,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21183,7 +21181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21197,7 +21195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21212,7 +21210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21228,7 +21226,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21245,7 +21243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21263,7 +21261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21279,7 +21277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21297,7 +21295,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21313,7 +21311,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21331,7 +21329,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21347,7 +21345,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21365,7 +21363,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21382,7 +21380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21396,7 +21394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21413,7 +21411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21430,7 +21428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21444,7 +21442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21462,7 +21460,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21476,7 +21474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21490,7 +21488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21507,7 +21505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21524,7 +21522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21541,7 +21539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21556,7 +21554,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21574,7 +21572,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21590,7 +21588,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21606,7 +21604,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21622,7 +21620,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21645,23 +21643,23 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21681,7 +21679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21697,7 +21695,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21712,7 +21710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21726,7 +21724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21741,7 +21739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21757,7 +21755,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21774,7 +21772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21792,7 +21790,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21808,7 +21806,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21826,7 +21824,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21842,7 +21840,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21860,7 +21858,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21878,7 +21876,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21896,7 +21894,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21913,7 +21911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21927,7 +21925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21941,7 +21939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21955,7 +21953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21969,7 +21967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21987,7 +21985,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -22001,7 +21999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -22015,7 +22013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -22029,7 +22027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -22043,7 +22041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -22060,7 +22058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -22075,7 +22073,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -22093,7 +22091,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -22109,7 +22107,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -22125,7 +22123,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -22141,7 +22139,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -22164,23 +22162,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22200,7 +22198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -22220,7 +22218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22232,7 +22230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -22246,7 +22244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22260,7 +22258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -22274,7 +22272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -22288,7 +22286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -22302,7 +22300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -22319,7 +22317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -22337,7 +22335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -22352,7 +22350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -22365,7 +22363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22379,7 +22377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -22400,23 +22398,23 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -22436,7 +22434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22452,7 +22450,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22467,7 +22465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22481,7 +22479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -22496,7 +22494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -22512,7 +22510,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -22529,7 +22527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -22547,7 +22545,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -22563,7 +22561,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -22581,7 +22579,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -22597,7 +22595,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -22615,7 +22613,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -22633,7 +22631,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -22651,7 +22649,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -22668,7 +22666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -22682,7 +22680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -22696,7 +22694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -22710,7 +22708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -22724,7 +22722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -22742,7 +22740,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -22756,7 +22754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -22770,7 +22768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -22784,7 +22782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -22798,7 +22796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -22815,7 +22813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -22830,7 +22828,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -22848,7 +22846,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -22864,7 +22862,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -22880,7 +22878,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -22896,7 +22894,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -22919,23 +22917,23 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -22955,7 +22953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22965,13 +22963,15 @@
       <c r="C2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="E2" s="14">
         <v>9</v>
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23000,7 +23000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23015,7 +23015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -23031,7 +23031,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -23097,7 +23097,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -23147,7 +23147,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -23162,7 +23162,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -23190,7 +23190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -23218,7 +23218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -23278,7 +23278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -23335,7 +23335,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -23369,7 +23369,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -23385,7 +23385,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -23401,7 +23401,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -23424,23 +23424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -23460,7 +23460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23476,7 +23476,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23491,7 +23491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -23536,7 +23536,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -23550,7 +23550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23568,7 +23568,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -23618,7 +23618,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -23652,7 +23652,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -23667,7 +23667,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -23681,7 +23681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -23797,7 +23797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -23840,7 +23840,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -23858,7 +23858,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -23874,7 +23874,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -23890,7 +23890,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -23906,7 +23906,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -23929,22 +23929,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23964,7 +23964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -23981,7 +23981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -24023,7 +24023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -24037,7 +24037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -24083,7 +24083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -24101,7 +24101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -24119,7 +24119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -24133,7 +24133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -24154,23 +24154,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24207,7 +24207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -24252,7 +24252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -24266,7 +24266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -24280,7 +24280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -24312,7 +24312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -24327,7 +24327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -24345,7 +24345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -24359,7 +24359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -24380,23 +24380,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24434,7 +24434,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -24451,7 +24451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -24480,7 +24480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -24495,7 +24495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -24526,7 +24526,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -24542,7 +24542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -24558,7 +24558,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -24571,7 +24571,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -24584,7 +24584,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="30">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -24599,7 +24599,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -24614,7 +24614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -24628,7 +24628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -24640,23 +24640,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24694,7 +24694,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -24711,7 +24711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -24738,7 +24738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -24753,7 +24753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -24769,7 +24769,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -24783,7 +24783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -24798,7 +24798,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -24814,7 +24814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -24830,7 +24830,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -24843,7 +24843,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -24856,7 +24856,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -24871,7 +24871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -24892,23 +24892,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24928,7 +24928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24944,7 +24944,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -24972,7 +24972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -24985,7 +24985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -25000,7 +25000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -25016,7 +25016,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -25045,7 +25045,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -25061,7 +25061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -25079,7 +25079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -25092,7 +25092,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -25105,7 +25105,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -25120,7 +25120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -25141,23 +25141,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -25195,7 +25195,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -25211,7 +25211,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -25227,7 +25227,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -25243,7 +25243,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -25259,7 +25259,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -25275,7 +25275,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -25291,7 +25291,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -25323,7 +25323,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -25339,7 +25339,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -25355,7 +25355,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -25371,7 +25371,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -25385,7 +25385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -25406,24 +25406,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -25464,7 +25464,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25498,7 +25498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -25515,7 +25515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -25532,7 +25532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -25550,7 +25550,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -25585,7 +25585,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -25603,7 +25603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -25621,7 +25621,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -25637,7 +25637,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -25653,7 +25653,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -25669,7 +25669,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -25701,7 +25701,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -25718,7 +25718,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D185F99-7E40-46E5-B259-DBC2DCD67233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -31,8 +37,8 @@
     <sheet name="Status-24-04-2020" sheetId="39" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="237">
   <si>
     <t>Date</t>
   </si>
@@ -757,8 +763,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1344,33 +1350,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="30">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1435,7 +1441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1456,7 +1462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="30">
+    <row r="5" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1477,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="30">
+    <row r="6" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1498,7 +1504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1519,7 +1525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="105">
+    <row r="8" spans="1:16384" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1543,7 +1549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60">
+    <row r="9" spans="1:16384" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1567,7 +1573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="45">
+    <row r="10" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1591,7 +1597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1612,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -18006,7 +18012,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="75">
+    <row r="13" spans="1:16384" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18027,10 +18033,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18050,42 +18056,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18096,24 +18102,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18136,7 +18142,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18154,7 +18160,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18171,7 +18177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18188,7 +18194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18205,7 +18211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18222,7 +18228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18243,7 +18249,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18260,7 +18266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18280,7 +18286,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18298,7 +18304,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18319,7 +18325,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18335,7 +18341,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18353,7 +18359,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18371,7 +18377,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18388,7 +18394,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18402,7 +18408,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18419,7 +18425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18437,24 +18443,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18477,7 +18483,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18495,7 +18501,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18512,7 +18518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18529,7 +18535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18546,7 +18552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18563,7 +18569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18584,7 +18590,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18598,7 +18604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18621,7 +18627,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18639,7 +18645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18660,7 +18666,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18676,7 +18682,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18697,7 +18703,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18715,7 +18721,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18732,7 +18738,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18749,7 +18755,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18766,7 +18772,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18784,24 +18790,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18824,7 +18830,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18842,7 +18848,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18859,7 +18865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18876,7 +18882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18893,7 +18899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18910,7 +18916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18931,7 +18937,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18945,7 +18951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18968,7 +18974,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18986,7 +18992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19007,7 +19013,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19023,7 +19029,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19044,7 +19050,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19062,7 +19068,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19081,7 +19087,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19098,7 +19104,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19115,7 +19121,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19133,24 +19139,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19173,7 +19179,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19191,7 +19197,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19208,7 +19214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19225,7 +19231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19242,7 +19248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19259,7 +19265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19283,7 +19289,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19297,7 +19303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19320,7 +19326,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19338,7 +19344,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19359,7 +19365,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19375,7 +19381,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19396,7 +19402,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19414,7 +19420,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19433,7 +19439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19450,7 +19456,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19467,7 +19473,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19485,24 +19491,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19525,7 +19531,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19543,7 +19549,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19560,7 +19566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19577,7 +19583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19594,7 +19600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19611,7 +19617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19635,7 +19641,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19649,7 +19655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19672,7 +19678,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19690,7 +19696,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19711,7 +19717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19727,7 +19733,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19748,7 +19754,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19766,7 +19772,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19785,7 +19791,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19802,7 +19808,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19819,7 +19825,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19837,24 +19843,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19877,7 +19883,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19895,7 +19901,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19912,7 +19918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19929,7 +19935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19946,7 +19952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19963,7 +19969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19987,7 +19993,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20001,7 +20007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20024,7 +20030,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20042,7 +20048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20063,7 +20069,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20079,7 +20085,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20100,7 +20106,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20118,7 +20124,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20137,7 +20143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20154,7 +20160,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20171,7 +20177,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20189,24 +20195,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20229,7 +20235,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20247,7 +20253,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20264,7 +20270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20281,7 +20287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20298,7 +20304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20315,7 +20321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20339,7 +20345,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20353,7 +20359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20376,7 +20382,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20394,7 +20400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20415,7 +20421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20431,7 +20437,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20452,7 +20458,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20470,7 +20476,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20489,7 +20495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20506,7 +20512,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20523,7 +20529,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20541,24 +20547,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20581,7 +20587,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20599,7 +20605,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20616,7 +20622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20633,7 +20639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20650,7 +20656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20674,7 +20680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20691,7 +20697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20714,7 +20720,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20732,7 +20738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20755,7 +20761,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20773,7 +20779,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20794,7 +20800,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20812,7 +20818,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20830,7 +20836,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20847,7 +20853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20861,7 +20867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20878,7 +20884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20895,7 +20901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20912,7 +20918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20932,7 +20938,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20949,7 +20955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20966,7 +20972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20983,7 +20989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21000,7 +21006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21017,7 +21023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21032,7 +21038,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21046,7 +21052,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21060,7 +21066,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21074,7 +21080,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21088,7 +21094,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21112,23 +21118,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21148,7 +21154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21164,7 +21170,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21181,7 +21187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21195,7 +21201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21210,7 +21216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21226,7 +21232,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21243,7 +21249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21261,7 +21267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21277,7 +21283,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21295,7 +21301,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21311,7 +21317,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21329,7 +21335,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21345,7 +21351,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21363,7 +21369,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21380,7 +21386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21394,7 +21400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21411,7 +21417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21428,7 +21434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21442,7 +21448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21460,7 +21466,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21474,7 +21480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21488,7 +21494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21505,7 +21511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21522,7 +21528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21539,7 +21545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21554,7 +21560,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21572,7 +21578,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21588,7 +21594,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21604,7 +21610,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21620,7 +21626,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21643,23 +21649,23 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21679,7 +21685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21695,7 +21701,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21710,7 +21716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21724,7 +21730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21739,7 +21745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21755,7 +21761,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21772,7 +21778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21790,7 +21796,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21806,7 +21812,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21824,7 +21830,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21840,7 +21846,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21858,7 +21864,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21876,7 +21882,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21894,7 +21900,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21911,7 +21917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21925,7 +21931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21939,7 +21945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21953,7 +21959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21967,7 +21973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21985,7 +21991,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21999,7 +22005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -22013,7 +22019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -22023,11 +22029,14 @@
       <c r="C23" s="27" t="s">
         <v>204</v>
       </c>
+      <c r="D23" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="E23" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -22041,7 +22050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -22058,7 +22067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -22073,7 +22082,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -22091,7 +22100,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -22107,7 +22116,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -22123,7 +22132,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -22139,7 +22148,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -22162,23 +22171,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22198,7 +22207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -22218,7 +22227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22230,7 +22239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -22244,7 +22253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22258,7 +22267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -22272,7 +22281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -22286,7 +22295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -22300,7 +22309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -22317,7 +22326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -22335,7 +22344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -22350,7 +22359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -22363,7 +22372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" customHeight="1">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22377,7 +22386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -22398,23 +22407,23 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -22434,7 +22443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22450,7 +22459,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22465,7 +22474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22479,7 +22488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -22494,7 +22503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -22510,7 +22519,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -22527,7 +22536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -22545,7 +22554,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -22561,7 +22570,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -22579,7 +22588,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -22595,7 +22604,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -22613,7 +22622,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -22631,7 +22640,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -22649,7 +22658,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -22666,7 +22675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -22680,7 +22689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -22694,7 +22703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -22708,7 +22717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -22722,7 +22731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -22740,7 +22749,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -22754,7 +22763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -22768,7 +22777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -22778,11 +22787,14 @@
       <c r="C23" s="27" t="s">
         <v>204</v>
       </c>
+      <c r="D23" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="E23" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -22796,7 +22808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -22813,7 +22825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -22828,7 +22840,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -22846,7 +22858,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -22862,7 +22874,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -22878,7 +22890,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -22894,7 +22906,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -22917,23 +22929,23 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -22953,7 +22965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22971,7 +22983,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22986,7 +22998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23000,7 +23012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23015,7 +23027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -23031,7 +23043,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -23045,7 +23057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23063,7 +23075,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23079,7 +23091,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -23097,7 +23109,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -23113,7 +23125,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -23131,7 +23143,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -23147,7 +23159,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -23162,7 +23174,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -23176,7 +23188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -23190,7 +23202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -23204,7 +23216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -23218,7 +23230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -23232,7 +23244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -23250,7 +23262,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -23264,7 +23276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -23278,7 +23290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -23288,11 +23300,14 @@
       <c r="C23" s="27" t="s">
         <v>204</v>
       </c>
+      <c r="D23" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="E23" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -23306,7 +23321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -23320,7 +23335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -23335,7 +23350,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -23353,7 +23368,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -23369,7 +23384,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -23385,7 +23400,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -23401,7 +23416,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -23424,23 +23439,23 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -23460,7 +23475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23476,7 +23491,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23491,7 +23506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23505,7 +23520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23520,7 +23535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -23536,7 +23551,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -23550,7 +23565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23568,7 +23583,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23584,7 +23599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -23602,7 +23617,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -23618,7 +23633,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -23636,7 +23651,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -23652,7 +23667,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -23667,7 +23682,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -23681,7 +23696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -23695,7 +23710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -23709,7 +23724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -23723,7 +23738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -23737,7 +23752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -23755,7 +23770,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -23769,7 +23784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -23783,7 +23798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -23797,7 +23812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -23811,7 +23826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -23825,7 +23840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -23840,7 +23855,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -23858,7 +23873,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -23874,7 +23889,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -23890,7 +23905,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -23906,7 +23921,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -23929,22 +23944,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23964,7 +23979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -23981,7 +23996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -23995,7 +24010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -24009,7 +24024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -24023,7 +24038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -24037,7 +24052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -24051,7 +24066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -24065,7 +24080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -24083,7 +24098,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -24101,7 +24116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -24119,7 +24134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -24133,7 +24148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -24154,23 +24169,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24190,7 +24205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24207,7 +24222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -24221,7 +24236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -24238,7 +24253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -24252,7 +24267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -24266,7 +24281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -24280,7 +24295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -24294,7 +24309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -24312,7 +24327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -24327,7 +24342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -24345,7 +24360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -24359,7 +24374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -24380,23 +24395,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24416,7 +24431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24434,7 +24449,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -24451,7 +24466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+    <row r="4" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -24465,7 +24480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -24480,7 +24495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -24495,7 +24510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -24509,7 +24524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.1" customHeight="1">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -24526,7 +24541,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -24542,7 +24557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1">
+    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -24558,7 +24573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1">
+    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -24571,7 +24586,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="12" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -24584,7 +24599,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -24599,7 +24614,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -24614,7 +24629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -24628,7 +24643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -24640,23 +24655,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24676,7 +24691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24694,7 +24709,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -24711,7 +24726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -24725,7 +24740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -24738,7 +24753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -24753,7 +24768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -24769,7 +24784,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -24783,7 +24798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -24798,7 +24813,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -24814,7 +24829,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -24830,7 +24845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -24843,7 +24858,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -24856,7 +24871,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -24871,7 +24886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -24892,23 +24907,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24928,7 +24943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24944,7 +24959,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -24958,7 +24973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -24972,7 +24987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -24985,7 +25000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -25000,7 +25015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -25016,7 +25031,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -25030,7 +25045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -25045,7 +25060,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -25061,7 +25076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -25079,7 +25094,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -25092,7 +25107,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -25105,7 +25120,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -25120,7 +25135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -25141,23 +25156,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -25177,7 +25192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -25195,7 +25210,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -25211,7 +25226,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.45" customHeight="1">
+    <row r="4" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -25227,7 +25242,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -25243,7 +25258,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -25259,7 +25274,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -25275,7 +25290,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -25291,7 +25306,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1">
+    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -25307,7 +25322,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -25323,7 +25338,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="11" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -25339,7 +25354,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -25355,7 +25370,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -25371,7 +25386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -25385,7 +25400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -25406,24 +25421,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25446,7 +25461,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -25464,7 +25479,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25481,7 +25496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25498,7 +25513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -25515,7 +25530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -25532,7 +25547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -25550,7 +25565,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -25567,7 +25582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -25585,7 +25600,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -25603,7 +25618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -25621,7 +25636,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -25637,7 +25652,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -25653,7 +25668,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -25669,7 +25684,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -25683,7 +25698,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -25701,7 +25716,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -25718,7 +25733,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D185F99-7E40-46E5-B259-DBC2DCD67233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -763,7 +762,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1357,26 +1356,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1441,7 +1440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1462,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1483,7 +1482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1504,7 +1503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1525,7 +1524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16384" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1549,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1573,7 +1572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1597,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1618,7 +1617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -18012,7 +18011,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18033,10 +18032,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18056,42 +18055,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18102,24 +18101,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18142,7 +18141,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18160,7 +18159,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18177,7 +18176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18194,7 +18193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18211,7 +18210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18228,7 +18227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18249,7 +18248,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18266,7 +18265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18286,7 +18285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18304,7 +18303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18325,7 +18324,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18341,7 +18340,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18359,7 +18358,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18377,7 +18376,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18394,7 +18393,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18408,7 +18407,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18425,7 +18424,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18443,24 +18442,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18483,7 +18482,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18501,7 +18500,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18518,7 +18517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18535,7 +18534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18552,7 +18551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18569,7 +18568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18590,7 +18589,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18604,7 +18603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18627,7 +18626,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18645,7 +18644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18666,7 +18665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18682,7 +18681,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18703,7 +18702,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18721,7 +18720,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18738,7 +18737,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18755,7 +18754,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18772,7 +18771,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18790,24 +18789,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18830,7 +18829,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18848,7 +18847,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18865,7 +18864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18882,7 +18881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18899,7 +18898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18916,7 +18915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18937,7 +18936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18951,7 +18950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18974,7 +18973,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18992,7 +18991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19013,7 +19012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19029,7 +19028,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19050,7 +19049,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19068,7 +19067,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19087,7 +19086,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19104,7 +19103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19121,7 +19120,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19139,24 +19138,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19179,7 +19178,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19197,7 +19196,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19214,7 +19213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19231,7 +19230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19248,7 +19247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19265,7 +19264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19289,7 +19288,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19303,7 +19302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19326,7 +19325,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19344,7 +19343,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19365,7 +19364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19381,7 +19380,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19402,7 +19401,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19420,7 +19419,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19439,7 +19438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19456,7 +19455,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19473,7 +19472,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19491,24 +19490,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19531,7 +19530,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19549,7 +19548,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19566,7 +19565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19583,7 +19582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19600,7 +19599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19617,7 +19616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19641,7 +19640,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19655,7 +19654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19678,7 +19677,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19696,7 +19695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19717,7 +19716,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19733,7 +19732,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19754,7 +19753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19772,7 +19771,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19791,7 +19790,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19808,7 +19807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19825,7 +19824,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19843,24 +19842,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19883,7 +19882,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19901,7 +19900,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19918,7 +19917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19935,7 +19934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19952,7 +19951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19969,7 +19968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19993,7 +19992,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20007,7 +20006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20030,7 +20029,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20048,7 +20047,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20069,7 +20068,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20085,7 +20084,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20106,7 +20105,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20124,7 +20123,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20143,7 +20142,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20160,7 +20159,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20177,7 +20176,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20195,24 +20194,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20235,7 +20234,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20253,7 +20252,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20270,7 +20269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20287,7 +20286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20304,7 +20303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20321,7 +20320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20345,7 +20344,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20359,7 +20358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20382,7 +20381,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20400,7 +20399,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20421,7 +20420,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20437,7 +20436,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20458,7 +20457,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20476,7 +20475,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20495,7 +20494,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20512,7 +20511,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20529,7 +20528,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20547,24 +20546,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20587,7 +20586,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20605,7 +20604,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20622,7 +20621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20639,7 +20638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20656,7 +20655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20680,7 +20679,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20697,7 +20696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20720,7 +20719,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20738,7 +20737,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20761,7 +20760,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20779,7 +20778,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20800,7 +20799,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20818,7 +20817,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20836,7 +20835,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20853,7 +20852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20867,7 +20866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20884,7 +20883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20901,7 +20900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20918,7 +20917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20938,7 +20937,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20955,7 +20954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20972,7 +20971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20989,7 +20988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21006,7 +21005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21023,7 +21022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21038,7 +21037,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21052,7 +21051,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21066,7 +21065,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21080,7 +21079,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21094,7 +21093,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21118,23 +21117,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21154,7 +21153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21170,7 +21169,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21187,7 +21186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21201,7 +21200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21216,7 +21215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21232,7 +21231,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21267,7 +21266,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21283,7 +21282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21301,7 +21300,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21317,7 +21316,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21335,7 +21334,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21351,7 +21350,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21369,7 +21368,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21386,7 +21385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21400,7 +21399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21417,7 +21416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21434,7 +21433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21448,7 +21447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21466,7 +21465,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21480,7 +21479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21494,7 +21493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21511,7 +21510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21528,7 +21527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21545,7 +21544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21560,7 +21559,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21578,7 +21577,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21594,7 +21593,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21610,7 +21609,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21626,7 +21625,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21649,23 +21648,23 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21685,7 +21684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21701,7 +21700,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21716,7 +21715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21730,7 +21729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21745,7 +21744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21761,7 +21760,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21778,7 +21777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21796,7 +21795,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21812,7 +21811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21830,7 +21829,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21846,7 +21845,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21864,7 +21863,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21882,7 +21881,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21900,7 +21899,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21917,7 +21916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21931,7 +21930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21945,7 +21944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21959,7 +21958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21973,7 +21972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21991,7 +21990,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -22005,7 +22004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -22019,7 +22018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -22036,7 +22035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -22050,7 +22049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -22067,7 +22066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -22082,7 +22081,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -22100,7 +22099,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -22116,7 +22115,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -22132,7 +22131,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -22148,7 +22147,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -22171,23 +22170,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22207,7 +22206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -22227,7 +22226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22239,7 +22238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -22253,7 +22252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22267,7 +22266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -22281,7 +22280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -22295,7 +22294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -22309,7 +22308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -22326,7 +22325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -22344,7 +22343,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -22359,7 +22358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -22372,7 +22371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22386,7 +22385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -22407,23 +22406,23 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -22443,7 +22442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22459,7 +22458,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22474,7 +22473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22488,7 +22487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -22503,7 +22502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -22519,7 +22518,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -22536,7 +22535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -22554,7 +22553,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -22570,7 +22569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -22588,7 +22587,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -22604,7 +22603,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -22622,7 +22621,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -22640,7 +22639,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -22658,7 +22657,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -22675,7 +22674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -22689,7 +22688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -22703,7 +22702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -22717,7 +22716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -22731,7 +22730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -22749,7 +22748,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -22763,7 +22762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -22777,7 +22776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -22794,7 +22793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -22808,7 +22807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -22825,7 +22824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -22840,7 +22839,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -22858,7 +22857,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -22874,7 +22873,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -22890,7 +22889,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -22906,7 +22905,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -22929,23 +22928,23 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -22965,7 +22964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22983,7 +22982,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22998,7 +22997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23012,7 +23011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23027,7 +23026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -23043,7 +23042,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -23057,7 +23056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23075,7 +23074,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23091,7 +23090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -23109,7 +23108,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -23125,7 +23124,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -23143,7 +23142,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -23159,7 +23158,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -23174,7 +23173,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -23188,7 +23187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -23202,7 +23201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -23216,7 +23215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -23230,7 +23229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -23244,7 +23243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -23262,7 +23261,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -23276,7 +23275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -23290,7 +23289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -23307,7 +23306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -23321,7 +23320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -23335,7 +23334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -23350,7 +23349,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -23368,7 +23367,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -23384,7 +23383,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -23400,7 +23399,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -23416,7 +23415,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -23439,23 +23438,23 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -23475,7 +23474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23491,7 +23490,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23506,7 +23505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23520,7 +23519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23535,7 +23534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -23551,7 +23550,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -23565,7 +23564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23583,7 +23582,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23599,7 +23598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -23617,7 +23616,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -23633,7 +23632,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -23651,7 +23650,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -23667,7 +23666,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -23682,7 +23681,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -23696,7 +23695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -23710,7 +23709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -23724,7 +23723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -23738,7 +23737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -23752,7 +23751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -23770,7 +23769,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -23784,7 +23783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -23798,7 +23797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -23812,7 +23811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -23826,7 +23825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -23840,7 +23839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -23855,7 +23854,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -23873,7 +23872,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -23889,7 +23888,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -23905,7 +23904,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -23921,7 +23920,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -23944,22 +23943,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23979,7 +23978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -23996,7 +23995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -24010,7 +24009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -24024,7 +24023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -24038,7 +24037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -24052,7 +24051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -24066,7 +24065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -24080,7 +24079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -24098,7 +24097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -24116,7 +24115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -24134,7 +24133,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -24148,7 +24147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -24169,23 +24168,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24205,7 +24204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24222,7 +24221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -24236,7 +24235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -24253,7 +24252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -24267,7 +24266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -24281,7 +24280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -24295,7 +24294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -24309,7 +24308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -24327,7 +24326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -24342,7 +24341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -24360,7 +24359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -24374,7 +24373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -24395,23 +24394,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24431,7 +24430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24449,7 +24448,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -24466,7 +24465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -24480,7 +24479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -24495,7 +24494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -24510,7 +24509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -24524,7 +24523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -24557,7 +24556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -24573,7 +24572,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -24586,7 +24585,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -24599,7 +24598,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -24614,7 +24613,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -24629,7 +24628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -24643,7 +24642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -24655,23 +24654,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24691,7 +24690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24709,7 +24708,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -24726,7 +24725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -24740,7 +24739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -24753,7 +24752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -24768,7 +24767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -24784,7 +24783,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -24798,7 +24797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -24813,7 +24812,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -24829,7 +24828,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -24845,7 +24844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -24858,7 +24857,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -24871,7 +24870,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -24886,7 +24885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -24907,23 +24906,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24943,7 +24942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -24959,7 +24958,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -24973,7 +24972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -24987,7 +24986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -25000,7 +24999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -25015,7 +25014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -25031,7 +25030,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -25045,7 +25044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -25060,7 +25059,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -25076,7 +25075,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -25094,7 +25093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -25107,7 +25106,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -25120,7 +25119,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -25135,7 +25134,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -25156,23 +25155,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -25192,7 +25191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -25210,7 +25209,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -25226,7 +25225,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -25242,7 +25241,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -25258,7 +25257,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -25274,7 +25273,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -25290,7 +25289,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -25306,7 +25305,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -25322,7 +25321,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -25338,7 +25337,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -25354,7 +25353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -25370,7 +25369,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -25386,7 +25385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -25400,7 +25399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -25421,24 +25420,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25461,7 +25460,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -25479,7 +25478,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25496,7 +25495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25513,7 +25512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -25530,7 +25529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -25547,7 +25546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -25565,7 +25564,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -25582,7 +25581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -25600,7 +25599,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -25618,7 +25617,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -25636,7 +25635,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -25652,7 +25651,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -25668,7 +25667,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -25684,7 +25683,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -25698,7 +25697,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -25716,7 +25715,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -25733,7 +25732,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -729,7 +729,7 @@
     <t>Oracle PL/SQL training</t>
   </si>
   <si>
-    <t>Going through Java Script Training - 4/22/20</t>
+    <t>Completed the Java Script Training - 4/23/20</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1322,7 +1322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21094,7 +21094,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1322,7 +1322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bench\bench_status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20730" windowHeight="11760" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -28,8 +33,8 @@
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -726,17 +731,17 @@
     <t>Going through Python  training</t>
   </si>
   <si>
-    <t>Oracle PL/SQL training</t>
+    <t>Completed the Java Script Training - 4/23/20</t>
   </si>
   <si>
-    <t>Completed the Java Script Training - 4/23/20</t>
+    <t>Going through training on Oracle PL/SQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,33 +1327,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="30">
+    <row r="2" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1413,7 +1418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1434,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="30">
+    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1455,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="30">
+    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1476,7 +1481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1497,7 +1502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="105">
+    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1521,7 +1526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60">
+    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1545,7 +1550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="45">
+    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1569,7 +1574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1590,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17984,7 +17989,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="75">
+    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18005,10 +18010,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18028,42 +18033,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18074,24 +18079,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18114,7 +18119,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18132,7 +18137,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18149,7 +18154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18166,7 +18171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18183,7 +18188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18200,7 +18205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18221,7 +18226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18238,7 +18243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18258,7 +18263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18276,7 +18281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18297,7 +18302,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18313,7 +18318,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18331,7 +18336,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18349,7 +18354,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18366,7 +18371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18380,7 +18385,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18397,7 +18402,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18415,24 +18420,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18455,7 +18460,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18473,7 +18478,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18490,7 +18495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18507,7 +18512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18524,7 +18529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18541,7 +18546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18562,7 +18567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18576,7 +18581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18599,7 +18604,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18617,7 +18622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18638,7 +18643,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18654,7 +18659,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18675,7 +18680,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18693,7 +18698,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18710,7 +18715,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18727,7 +18732,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18744,7 +18749,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18762,24 +18767,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18802,7 +18807,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18820,7 +18825,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18837,7 +18842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18854,7 +18859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18871,7 +18876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18888,7 +18893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18909,7 +18914,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18923,7 +18928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18946,7 +18951,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18964,7 +18969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18985,7 +18990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19001,7 +19006,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19022,7 +19027,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19040,7 +19045,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19059,7 +19064,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19076,7 +19081,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19093,7 +19098,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19111,24 +19116,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19151,7 +19156,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19169,7 +19174,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19186,7 +19191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19203,7 +19208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19220,7 +19225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19237,7 +19242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19261,7 +19266,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19275,7 +19280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19298,7 +19303,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19316,7 +19321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19337,7 +19342,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19353,7 +19358,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19374,7 +19379,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19392,7 +19397,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19411,7 +19416,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19428,7 +19433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19445,7 +19450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19463,24 +19468,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19503,7 +19508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19521,7 +19526,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19538,7 +19543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19555,7 +19560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19572,7 +19577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19589,7 +19594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19613,7 +19618,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19627,7 +19632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19650,7 +19655,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19668,7 +19673,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19689,7 +19694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19705,7 +19710,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19726,7 +19731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19744,7 +19749,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19763,7 +19768,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19780,7 +19785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19797,7 +19802,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19815,24 +19820,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19855,7 +19860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19873,7 +19878,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19890,7 +19895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19907,7 +19912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19924,7 +19929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19941,7 +19946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19965,7 +19970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19979,7 +19984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20002,7 +20007,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20020,7 +20025,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20041,7 +20046,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20057,7 +20062,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20078,7 +20083,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20096,7 +20101,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20115,7 +20120,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20132,7 +20137,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20149,7 +20154,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20167,24 +20172,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20207,7 +20212,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20225,7 +20230,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20242,7 +20247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20259,7 +20264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20276,7 +20281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20293,7 +20298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20317,7 +20322,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20331,7 +20336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20354,7 +20359,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20372,7 +20377,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20393,7 +20398,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20409,7 +20414,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20430,7 +20435,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20448,7 +20453,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20467,7 +20472,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20484,7 +20489,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20501,7 +20506,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20519,24 +20524,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20559,7 +20564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20577,7 +20582,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20594,7 +20599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20611,7 +20616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20628,7 +20633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20652,7 +20657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20669,7 +20674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20692,7 +20697,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20710,7 +20715,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20733,7 +20738,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20751,7 +20756,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20772,7 +20777,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20790,7 +20795,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20808,7 +20813,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20825,7 +20830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20839,7 +20844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20856,7 +20861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20873,7 +20878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20890,7 +20895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20910,7 +20915,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20927,7 +20932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20944,7 +20949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20961,7 +20966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20978,7 +20983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20995,7 +21000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21010,7 +21015,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21024,7 +21029,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21038,7 +21043,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21052,7 +21057,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21066,7 +21071,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21090,23 +21095,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21126,7 +21131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21142,7 +21147,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21159,7 +21164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21173,7 +21178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21188,7 +21193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21204,7 +21209,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21221,7 +21226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21239,7 +21244,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21255,7 +21260,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21273,7 +21278,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21289,7 +21294,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21307,7 +21312,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21323,7 +21328,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21341,7 +21346,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21358,7 +21363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21372,7 +21377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21389,7 +21394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21400,13 +21405,13 @@
         <v>196</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E18" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21420,7 +21425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21438,7 +21443,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21452,7 +21457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21466,7 +21471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21483,7 +21488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21500,7 +21505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21514,7 +21519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21529,7 +21534,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -21540,14 +21545,14 @@
         <v>213</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="26">
         <v>9</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21563,7 +21568,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21579,7 +21584,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21595,7 +21600,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21618,23 +21623,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21654,7 +21659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21674,7 +21679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21686,7 +21691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21700,7 +21705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21714,7 +21719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21728,7 +21733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21742,7 +21747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21756,7 +21761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1">
+    <row r="9" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21773,7 +21778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21791,7 +21796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21806,7 +21811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21819,7 +21824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" customHeight="1">
+    <row r="13" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21833,7 +21838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21854,22 +21859,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21889,7 +21894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21906,7 +21911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21920,7 +21925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21934,7 +21939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21948,7 +21953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21962,7 +21967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21976,7 +21981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21990,7 +21995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22008,7 +22013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -22026,7 +22031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22044,7 +22049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22058,7 +22063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22079,23 +22084,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22115,7 +22120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22132,7 +22137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22146,7 +22151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1">
+    <row r="4" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22163,7 +22168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22177,7 +22182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22191,7 +22196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22205,7 +22210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22219,7 +22224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22237,7 +22242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22252,7 +22257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22270,7 +22275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22284,7 +22289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22305,23 +22310,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22341,7 +22346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22359,7 +22364,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22376,7 +22381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22390,7 +22395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22405,7 +22410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22420,7 +22425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22434,7 +22439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.1" customHeight="1">
+    <row r="8" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22451,7 +22456,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" customHeight="1">
+    <row r="9" spans="1:6" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22467,7 +22472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22483,7 +22488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22496,7 +22501,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="12" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22509,7 +22514,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22524,7 +22529,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22539,7 +22544,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22553,7 +22558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22565,23 +22570,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22601,7 +22606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22619,7 +22624,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22636,7 +22641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22650,7 +22655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22663,7 +22668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22678,7 +22683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22694,7 +22699,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22708,7 +22713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22723,7 +22728,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22739,7 +22744,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22755,7 +22760,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22768,7 +22773,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22781,7 +22786,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22796,7 +22801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22817,23 +22822,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22853,7 +22858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22869,7 +22874,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22883,7 +22888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22897,7 +22902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22910,7 +22915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22925,7 +22930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22941,7 +22946,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22955,7 +22960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22970,7 +22975,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22986,7 +22991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -23004,7 +23009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -23017,7 +23022,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -23030,7 +23035,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23045,7 +23050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23066,23 +23071,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23102,7 +23107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23120,7 +23125,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1">
+    <row r="3" spans="1:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23136,7 +23141,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.45" customHeight="1">
+    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23152,7 +23157,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23168,7 +23173,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23184,7 +23189,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23200,7 +23205,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23216,7 +23221,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1">
+    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23232,7 +23237,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23248,7 +23253,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23264,7 +23269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23280,7 +23285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23296,7 +23301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23310,7 +23315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23331,24 +23336,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23371,7 +23376,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23389,7 +23394,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23406,7 +23411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23423,7 +23428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23440,7 +23445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23457,7 +23462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23475,7 +23480,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23492,7 +23497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23510,7 +23515,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23528,7 +23533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23546,7 +23551,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23562,7 +23567,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23578,7 +23583,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23594,7 +23599,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23608,7 +23613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23626,7 +23631,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23643,7 +23648,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -734,7 +734,7 @@
     <t>Completed the Java Script Training - 4/23/20</t>
   </si>
   <si>
-    <t>Going through training on Oracle PL/SQL</t>
+    <t>Learning IBM Sterling OMS and Product Management system training</t>
   </si>
 </sst>
 </file>
@@ -21098,8 +21098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21394,7 +21394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -729,7 +729,7 @@
     <t>Oracle PL/SQL training</t>
   </si>
   <si>
-    <t>Completed the Java Script Training - 4/23/20</t>
+    <t>Going through the React Js training</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21094,7 +21094,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -729,7 +729,7 @@
     <t>Oracle PL/SQL training</t>
   </si>
   <si>
-    <t>Going through the React Js training</t>
+    <t xml:space="preserve">Going through the React Js Basics </t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21094,7 +21094,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bench\bench_status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20730" windowHeight="11760" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -28,8 +33,8 @@
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -726,17 +731,17 @@
     <t>Going through Python  training</t>
   </si>
   <si>
-    <t>Oracle PL/SQL training</t>
+    <t xml:space="preserve">Going through the React Js Basics </t>
   </si>
   <si>
-    <t xml:space="preserve">Going through the React Js Basics </t>
+    <t>Going through product data management training and self learning OMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,33 +1327,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="30">
+    <row r="2" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1413,7 +1418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1434,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="30">
+    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1455,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="30">
+    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1476,7 +1481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1497,7 +1502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="105">
+    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1521,7 +1526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60">
+    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1545,7 +1550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="45">
+    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1569,7 +1574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1590,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1">
+    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17984,7 +17989,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="75">
+    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -18005,10 +18010,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18028,42 +18033,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -18074,24 +18079,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18114,7 +18119,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18132,7 +18137,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18149,7 +18154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18166,7 +18171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18183,7 +18188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18200,7 +18205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18221,7 +18226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18238,7 +18243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18258,7 +18263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18276,7 +18281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18297,7 +18302,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18313,7 +18318,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18331,7 +18336,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18349,7 +18354,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18366,7 +18371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18380,7 +18385,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18397,7 +18402,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18415,24 +18420,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18455,7 +18460,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18473,7 +18478,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18490,7 +18495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18507,7 +18512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18524,7 +18529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18541,7 +18546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18562,7 +18567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18576,7 +18581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18599,7 +18604,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18617,7 +18622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18638,7 +18643,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18654,7 +18659,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18675,7 +18680,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18693,7 +18698,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18710,7 +18715,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18727,7 +18732,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18744,7 +18749,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18762,24 +18767,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18802,7 +18807,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18820,7 +18825,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18837,7 +18842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18854,7 +18859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18871,7 +18876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18888,7 +18893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18909,7 +18914,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18923,7 +18928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="